--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -44,7 +44,34 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:13 AM</t>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>Monday, 18 August, 2025 9:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +281,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +293,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +701,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>126</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>21</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>22</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +811,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -71,7 +71,7 @@
     <t>78.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:14 AM</t>
+    <t>Monday, 18 August, 2025 9:18 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -71,7 +71,22 @@
     <t>78.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:18 AM</t>
+    <t>شفاط ثدي الجو</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>Monday, 18 August, 2025 9:34 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -766,38 +781,71 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>126</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>21</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>22</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>20</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>21</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
-        <v>22</v>
-      </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>151</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>25</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>26</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>27</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -816,10 +864,15 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -44,49 +44,130 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>3:3</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>48.0000</t>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>ديتول وسط</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:34 AM</t>
+    <t>Monday, 18 August, 2025 9:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,7 +841,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -770,14 +851,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -786,66 +867,297 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>26</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>27</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>31</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>35</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>23</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>36</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>23</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>31</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>41</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>42</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>31</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>43</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>42</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>31</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>46</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>49</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>31</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>50</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>342.72000000000003</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>53</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>54</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +1181,45 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ريكسونه رجالى</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -167,7 +179,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:50 AM</t>
+    <t>Monday, 18 August, 2025 9:57 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1072,7 +1084,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1082,11 +1094,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>23</v>
@@ -1098,14 +1110,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1126,38 +1138,71 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>342.72000000000003</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>52</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>53</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>31</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>54</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>369.72000000000003</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>56</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>57</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>58</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1216,10 +1261,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -179,7 +179,7 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:57 AM</t>
+    <t>Monday, 18 August, 2025 10:05 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANALLERGE 4 MG 60 TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -80,9 +95,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -125,6 +137,18 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>ديتول وسط</t>
   </si>
   <si>
@@ -173,13 +197,16 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>Monday, 18 August, 2025 10:05 AM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Monday, 18 August, 2025 10:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -896,14 +923,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -912,14 +939,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -929,7 +956,7 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
@@ -958,18 +985,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -978,20 +1005,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1002,7 +1029,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1011,31 +1038,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1044,31 +1071,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1077,20 +1104,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1101,7 +1128,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1117,24 +1144,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1143,66 +1170,165 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>369.72000000000003</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>56</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>57</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>54</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>35</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>58</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>60</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>61</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>35</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>44</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>62</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>54</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>35</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>63</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>439.72000000000003</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>65</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>66</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>67</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1266,10 +1392,25 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -206,7 +206,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 10:18 AM</t>
+    <t>Monday, 18 August, 2025 10:25 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -44,57 +44,45 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ANALLERGE 4 MG 60 TAB.</t>
-  </si>
-  <si>
-    <t>1:2</t>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:3</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -206,7 +194,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 10:25 AM</t>
+    <t>Monday, 18 August, 2025 10:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -923,14 +911,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -939,14 +927,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -956,7 +944,7 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
@@ -985,18 +973,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1005,20 +993,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1029,7 +1017,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1038,20 +1026,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1062,7 +1050,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1078,24 +1066,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1104,20 +1092,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1128,7 +1116,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1150,7 +1138,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1161,7 +1149,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1177,24 +1165,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1203,31 +1191,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1236,99 +1224,66 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="A20" s="7">
-        <v>14</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c t="s" r="C20" s="8">
+      <c r="P20" s="13">
+        <v>409.72000000000003</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>61</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
         <v>62</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c t="s" r="H20" s="9">
-        <v>54</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c t="s" r="L20" s="10">
-        <v>35</v>
-      </c>
-      <c r="M20" s="10"/>
-      <c t="s" r="N20" s="8">
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
         <v>63</v>
       </c>
-      <c r="O20" s="8"/>
-      <c t="s" r="P20" s="11">
-        <v>64</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>439.72000000000003</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
-        <v>65</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
-        <v>66</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
-        <v>67</v>
-      </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1402,15 +1357,10 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -116,6 +128,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
   </si>
   <si>
@@ -137,6 +158,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>ديتول وسط</t>
   </si>
   <si>
@@ -176,25 +209,22 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Monday, 18 August, 2025 10:44 AM</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Monday, 18 August, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -885,7 +915,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -894,14 +924,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -911,14 +941,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -927,14 +957,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -944,14 +974,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -973,18 +1003,18 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -993,20 +1023,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1017,7 +1047,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1026,20 +1056,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1050,7 +1080,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1066,13 +1096,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1083,7 +1113,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1105,7 +1135,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1116,7 +1146,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1138,7 +1168,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1149,7 +1179,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1165,13 +1195,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1182,7 +1212,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1204,18 +1234,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1224,66 +1254,165 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>409.72000000000003</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>61</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>62</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
-        <v>63</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>35</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>65</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>35</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>47</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>68</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>61</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>35</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>69</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>502.94499999999999</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>71</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>72</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>73</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1357,10 +1486,25 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -224,7 +224,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 10:48 AM</t>
+    <t>Monday, 18 August, 2025 10:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -224,7 +224,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 10:50 AM</t>
+    <t>Monday, 18 August, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>GOURYST 0.5 MG 100 TABS.</t>
   </si>
   <si>
@@ -137,6 +146,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
   </si>
   <si>
@@ -224,7 +245,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 10:54 AM</t>
+    <t>Monday, 18 August, 2025 10:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,7 +1018,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1007,11 +1028,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1023,31 +1044,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1056,31 +1077,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1096,7 +1117,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1113,7 +1134,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1135,7 +1156,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1146,7 +1167,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1162,21 +1183,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>27</v>
@@ -1188,20 +1209,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1234,7 +1255,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1261,21 +1282,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>27</v>
@@ -1287,20 +1308,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1311,7 +1332,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1327,21 +1348,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>27</v>
@@ -1353,66 +1374,132 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>502.94499999999999</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>71</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>72</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>73</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>74</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>38</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>54</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>75</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>68</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>38</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>76</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>555.64499999999998</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>78</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>79</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>80</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1501,10 +1588,20 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -77,24 +89,21 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>2:3</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>1:1</t>
+    <t>111.8400</t>
+  </si>
+  <si>
+    <t>2:1</t>
   </si>
   <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>78.0000</t>
   </si>
   <si>
@@ -158,6 +167,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
   </si>
   <si>
@@ -230,7 +248,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>12.0000</t>
   </si>
   <si>
     <t>شفاط ثدي الجو</t>
@@ -245,7 +263,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 10:59 AM</t>
+    <t>Monday, 18 August, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -936,7 +954,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -969,7 +987,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -978,14 +996,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -995,14 +1013,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1011,7 +1029,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1028,14 +1046,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1051,7 +1069,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1061,11 +1079,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1077,31 +1095,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1110,31 +1128,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1150,7 +1168,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1160,11 +1178,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1176,14 +1194,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1200,7 +1218,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1216,24 +1234,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1242,31 +1260,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1275,31 +1293,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1308,31 +1326,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1341,31 +1359,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1374,28 +1392,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1407,31 +1425,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1440,66 +1458,132 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>80</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>22</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>41</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>60</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>555.64499999999998</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>78</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>79</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>80</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>74</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>41</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>82</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>781.64499999999998</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>85</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>86</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1598,10 +1682,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>CANDALKAN 4MG 14 TABLETS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -233,9 +245,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -263,7 +272,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 11:00 AM</t>
+    <t>Monday, 18 August, 2025 11:03 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -987,7 +996,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1020,7 +1029,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1029,14 +1038,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1046,14 +1055,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1062,14 +1071,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1079,14 +1088,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1095,14 +1104,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1141,18 +1150,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1161,20 +1170,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1185,7 +1194,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1194,14 +1203,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1234,24 +1243,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1260,28 +1269,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>18</v>
@@ -1293,20 +1302,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1339,7 +1348,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1366,21 +1375,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1392,20 +1401,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1438,7 +1447,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1465,13 +1474,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1482,7 +1491,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1504,18 +1513,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1524,66 +1533,99 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q26" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>84</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>781.64499999999998</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>84</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>45</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>85</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>821.64499999999998</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>87</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>88</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>89</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1692,10 +1734,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -233,9 +245,6 @@
     <t>ريكسونه رجالى</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>27.00</t>
   </si>
   <si>
@@ -272,7 +281,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 11:03 AM</t>
+    <t>Monday, 18 August, 2025 11:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1111,7 +1120,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1121,14 +1130,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1137,14 +1146,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1183,18 +1192,18 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1203,20 +1212,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1227,7 +1236,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1236,14 +1245,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1276,24 +1285,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1302,28 +1311,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>18</v>
@@ -1335,20 +1344,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1381,7 +1390,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1408,21 +1417,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1434,20 +1443,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1474,13 +1483,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1513,7 +1522,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1524,7 +1533,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1540,24 +1549,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1566,66 +1575,99 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q27" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>22</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>49</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>88</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>821.64499999999998</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>87</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>88</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>89</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>900.64499999999998</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>90</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>91</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>92</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1739,10 +1781,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 11:04 AM</t>
+    <t>Monday, 18 August, 2025 11:08 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -86,12 +86,24 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>82.50</t>
   </si>
   <si>
@@ -152,6 +164,18 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
   </si>
   <si>
@@ -257,7 +281,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -266,7 +293,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
   </si>
   <si>
     <t>شفاط ثدي الجو</t>
@@ -281,7 +311,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 11:08 AM</t>
+    <t>Monday, 18 August, 2025 11:11 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1038,7 +1068,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1047,14 +1077,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1071,7 +1101,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1080,14 +1110,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1097,14 +1127,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1113,14 +1143,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1130,7 +1160,7 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
@@ -1153,7 +1183,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1163,14 +1193,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1179,14 +1209,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1225,18 +1255,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1245,14 +1275,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1262,11 +1292,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1278,20 +1308,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1302,7 +1332,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1311,31 +1341,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1344,14 +1374,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1361,14 +1391,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1377,28 +1407,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
@@ -1410,20 +1440,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1450,21 +1480,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1476,28 +1506,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1509,28 +1539,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1542,31 +1572,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1575,31 +1605,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1608,7 +1638,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1621,53 +1651,119 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>900.64499999999998</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>90</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>91</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>92</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>96</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>29</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>57</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>76</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>97</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>22</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>57</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>98</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1012.645</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>100</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>101</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>102</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1786,10 +1882,20 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
@@ -311,7 +320,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 11:11 AM</t>
+    <t>Monday, 18 August, 2025 11:13 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1183,7 +1192,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1193,14 +1202,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1209,14 +1218,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1233,7 +1242,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1249,7 +1258,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1259,11 +1268,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1275,14 +1284,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1292,11 +1301,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1308,31 +1317,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1341,31 +1350,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1381,7 +1390,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1391,11 +1400,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1407,20 +1416,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1431,7 +1440,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1447,13 +1456,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1480,21 +1489,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1506,28 +1515,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1539,20 +1548,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1579,13 +1588,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1612,13 +1621,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1629,7 +1638,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>91</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1638,7 +1647,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1651,18 +1660,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>95</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1671,31 +1680,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1704,66 +1713,99 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q30" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>100</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>22</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>60</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>101</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>29</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1012.645</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>100</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
-        <v>101</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
-        <v>102</v>
-      </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1048.145</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>103</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>104</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>105</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1892,10 +1934,15 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -320,7 +320,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 11:13 AM</t>
+    <t>Monday, 18 August, 2025 11:34 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -89,21 +89,36 @@
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>43.00</t>
   </si>
   <si>
-    <t>86.0000</t>
+    <t>172.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
     <t>82.50</t>
   </si>
   <si>
@@ -143,9 +158,6 @@
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>79.00</t>
   </si>
   <si>
@@ -290,10 +302,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -305,9 +317,6 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
@@ -320,7 +329,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 11:34 AM</t>
+    <t>Monday, 18 August, 2025 11:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1093,7 +1102,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1103,14 +1112,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1119,14 +1128,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1136,14 +1145,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1159,7 +1168,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1169,14 +1178,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1185,14 +1194,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1202,14 +1211,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1218,14 +1227,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1235,14 +1244,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1251,7 +1260,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1268,14 +1277,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1284,14 +1293,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1363,18 +1372,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1383,20 +1392,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1407,7 +1416,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1416,14 +1425,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1456,24 +1465,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1482,28 +1491,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>18</v>
@@ -1515,20 +1524,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1561,7 +1570,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1588,21 +1597,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1614,28 +1623,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1647,31 +1656,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>94</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1693,7 +1702,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1720,24 +1729,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1746,66 +1755,99 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1048.145</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>103</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>22</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>64</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>104</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>105</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1177.145</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>106</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>107</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>108</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1939,10 +1981,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -176,15 +188,21 @@
     <t>GOURYST 0.5 MG 100 TABS.</t>
   </si>
   <si>
-    <t>0:9</t>
-  </si>
-  <si>
     <t>190.00</t>
   </si>
   <si>
     <t>19.0000</t>
   </si>
   <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -245,6 +263,18 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
   </si>
   <si>
@@ -329,7 +359,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 11:36 AM</t>
+    <t>Monday, 18 August, 2025 11:41 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1086,7 +1116,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1095,14 +1125,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1112,14 +1142,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1152,7 +1182,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1185,7 +1215,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1194,14 +1224,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1211,14 +1241,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1227,14 +1257,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1244,14 +1274,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1260,14 +1290,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1277,14 +1307,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1293,14 +1323,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1310,14 +1340,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1326,14 +1356,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1366,7 +1396,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1376,11 +1406,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1392,31 +1422,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1425,14 +1455,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1442,11 +1472,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1458,31 +1488,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1491,31 +1521,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1524,14 +1554,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1548,7 +1578,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1564,21 +1594,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1590,28 +1620,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1623,7 +1653,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1636,15 +1666,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1656,20 +1686,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1696,24 +1726,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1729,13 +1759,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1746,7 +1776,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1762,21 +1792,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -1788,7 +1818,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1801,53 +1831,152 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1177.145</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
-        <v>106</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
-        <v>107</v>
-      </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
-        <v>108</v>
-      </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>109</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>22</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>70</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>110</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>112</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>39</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>70</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>93</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>113</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>22</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>70</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>114</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1261.0650000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>116</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>117</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>118</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1986,10 +2115,25 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>PRIMO PLUS TOPICAL LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -359,7 +368,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 11:41 AM</t>
+    <t>Monday, 18 August, 2025 11:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1627,7 +1636,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1637,11 +1646,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1693,21 +1702,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1719,14 +1728,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1736,11 +1745,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1752,14 +1761,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1792,7 +1801,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1825,7 +1834,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1842,7 +1851,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>108</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1851,7 +1860,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1868,14 +1877,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1891,7 +1900,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1934,49 +1943,82 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>116</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>22</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>70</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>117</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1261.0650000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>116</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>117</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>118</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1311.0650000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>119</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>120</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>121</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2130,10 +2172,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -170,10 +170,13 @@
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>79.00</t>
   </si>
   <si>
-    <t>79.0000</t>
+    <t>158.0000</t>
   </si>
   <si>
     <t>GANATON 50 MG 30 F.C.TABS.</t>
@@ -296,9 +299,6 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -368,7 +368,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 11:48 AM</t>
+    <t>Monday, 18 August, 2025 11:59 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,7 +1339,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1349,14 +1349,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1382,11 +1382,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1415,11 +1415,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1448,11 +1448,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1481,11 +1481,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1497,31 +1497,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1547,11 +1547,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1563,14 +1563,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1580,11 +1580,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1609,15 +1609,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>18</v>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1662,14 +1662,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1679,11 +1679,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1712,11 +1712,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1728,20 +1728,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1774,7 +1774,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1807,7 +1807,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1840,7 +1840,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1873,7 +1873,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1906,7 +1906,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1939,7 +1939,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1972,7 +1972,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1988,7 +1988,7 @@
     </row>
     <row r="37" ht="25.5" customHeight="1">
       <c r="P37" s="13">
-        <v>1311.0650000000001</v>
+        <v>1390.0650000000001</v>
       </c>
       <c r="Q37" s="13"/>
     </row>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -368,7 +380,7 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 11:59 AM</t>
+    <t>Monday, 18 August, 2025 12:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1257,7 +1269,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1266,14 +1278,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1283,14 +1295,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1299,14 +1311,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1316,14 +1328,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1332,14 +1344,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1356,7 +1368,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1372,7 +1384,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1382,14 +1394,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1398,14 +1410,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1415,11 +1427,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1431,14 +1443,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1448,14 +1460,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1464,14 +1476,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1488,7 +1500,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1510,18 +1522,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1530,20 +1542,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1554,7 +1566,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1563,14 +1575,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1603,24 +1615,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1629,28 +1641,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1662,14 +1674,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1702,7 +1714,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1712,11 +1724,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1728,28 +1740,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1761,20 +1773,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1801,21 +1813,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -1827,28 +1839,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -1860,31 +1872,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>111</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1906,7 +1918,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1917,7 +1929,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>30</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1926,31 +1938,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1959,66 +1971,99 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1390.0650000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>119</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>120</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>22</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>75</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>121</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1432.9649999999999</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>123</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>124</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>125</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2177,10 +2222,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -380,7 +380,19 @@
     <t>30.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 12:27 PM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Monday, 18 August, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2032,38 +2044,71 @@
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1432.9649999999999</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>123</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
         <v>124</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>75</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>125</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1477.9649999999999</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>127</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>128</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>129</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2227,10 +2272,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -380,6 +380,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -392,7 +401,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 12:34 PM</t>
+    <t>Monday, 18 August, 2025 1:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2056,7 +2065,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2066,49 +2075,115 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1477.9649999999999</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>124</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>125</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>75</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>107</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>126</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>127</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>75</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>128</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>129</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1521.9649999999999</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>130</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>131</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>132</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2277,10 +2352,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -278,6 +278,15 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
     <t>PRIMO PLUS TOPICAL LOTION 120 ML</t>
   </si>
   <si>
@@ -299,6 +308,12 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
     <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
   </si>
   <si>
@@ -401,7 +416,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 1:36 PM</t>
+    <t>Monday, 18 August, 2025 1:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1702,7 +1717,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1719,7 +1734,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1735,7 +1750,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1745,11 +1760,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1761,14 +1776,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1801,24 +1816,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1827,28 +1842,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>18</v>
@@ -1860,14 +1875,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1877,11 +1892,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>18</v>
@@ -1893,14 +1908,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1910,11 +1925,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -1926,14 +1941,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1943,14 +1958,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1959,14 +1974,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1976,14 +1991,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1992,14 +2007,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2009,14 +2024,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2025,7 +2040,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2042,14 +2057,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2058,14 +2073,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2075,11 +2090,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2091,14 +2106,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2108,14 +2123,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2124,14 +2139,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2141,49 +2156,115 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1521.9649999999999</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>129</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>130</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>75</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>112</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>131</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>132</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>75</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>133</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1596.925</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>135</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>136</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>137</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2362,10 +2443,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -416,7 +416,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 1:54 PM</t>
+    <t>Monday, 18 August, 2025 1:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -200,6 +200,18 @@
     <t>29.7000</t>
   </si>
   <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
     <t>GOURYST 0.5 MG 100 TABS.</t>
   </si>
   <si>
@@ -245,9 +257,6 @@
     <t>26.4000</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -416,7 +425,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 1:56 PM</t>
+    <t>Monday, 18 August, 2025 1:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1486,7 +1495,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1496,11 +1505,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1512,14 +1521,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1529,14 +1538,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1545,14 +1554,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1569,7 +1578,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1591,18 +1600,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1611,20 +1620,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1635,7 +1644,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1651,7 +1660,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1661,11 +1670,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1677,20 +1686,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1701,7 +1710,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1717,13 +1726,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1734,7 +1743,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1750,7 +1759,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1767,7 +1776,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1783,7 +1792,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1793,11 +1802,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>18</v>
@@ -1809,14 +1818,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1826,14 +1835,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1842,14 +1851,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1859,14 +1868,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1882,13 +1891,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1915,21 +1924,21 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -1941,20 +1950,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1981,13 +1990,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2014,13 +2023,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2031,7 +2040,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>120</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2040,7 +2049,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2053,18 +2062,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>123</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2080,24 +2089,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2106,31 +2115,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2152,18 +2161,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2172,20 +2181,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2205,66 +2214,99 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1596.925</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>134</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
         <v>135</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>79</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>136</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>137</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c t="s" r="Q43" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>1696.915</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>138</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>139</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>140</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2453,10 +2495,15 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -425,7 +434,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 1:57 PM</t>
+    <t>Monday, 18 August, 2025 2:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1825,7 +1834,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1835,11 +1844,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -1851,14 +1860,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1868,14 +1877,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1924,13 +1933,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1957,7 +1966,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1967,11 +1976,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2023,7 +2032,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2056,7 +2065,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2073,7 +2082,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>123</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2082,7 +2091,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2099,14 +2108,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2122,7 +2131,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2132,14 +2141,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2165,14 +2174,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2214,14 +2223,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2247,14 +2256,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2264,49 +2273,82 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>1696.915</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>137</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
         <v>138</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>79</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>139</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>140</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1818.915</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>141</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>142</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>143</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2500,10 +2542,15 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -170,6 +170,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -365,9 +377,6 @@
     <t>ديتول وسط</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -404,6 +413,12 @@
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -434,7 +449,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 2:02 PM</t>
+    <t>Monday, 18 August, 2025 3:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1405,7 +1420,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1415,11 +1430,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1431,14 +1446,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1455,7 +1470,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1471,7 +1486,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1481,14 +1496,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1497,14 +1512,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1537,7 +1552,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1547,11 +1562,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1563,14 +1578,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1580,14 +1595,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1596,14 +1611,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1620,7 +1635,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1642,18 +1657,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1662,31 +1677,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1695,14 +1710,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1735,24 +1750,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1761,31 +1776,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1794,14 +1809,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1811,14 +1826,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1827,7 +1842,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1844,11 +1859,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>18</v>
@@ -1860,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1900,7 +1915,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1910,14 +1925,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1926,14 +1941,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1943,14 +1958,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1959,28 +1974,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>18</v>
@@ -1992,20 +2007,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2032,21 +2047,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>18</v>
@@ -2058,24 +2073,24 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2098,13 +2113,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2115,7 +2130,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2124,7 +2139,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2137,18 +2152,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>129</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2164,24 +2179,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2190,31 +2205,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2230,21 +2245,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2256,31 +2271,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2289,66 +2304,132 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1818.915</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>140</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>141</v>
       </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>83</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>55</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>142</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
         <v>143</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>83</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>144</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1872.7550000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>146</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>147</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>148</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2547,10 +2628,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -449,7 +449,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 3:12 PM</t>
+    <t>Monday, 18 August, 2025 3:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>1:3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -74,6 +86,18 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>CANDALKAN 4MG 14 TABLETS</t>
   </si>
   <si>
@@ -125,6 +149,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
@@ -155,15 +188,9 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>111.8400</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -215,9 +242,6 @@
     <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>303.00</t>
   </si>
   <si>
@@ -233,6 +257,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>HIDERM TOPICAL LOTION 100ML</t>
   </si>
   <si>
@@ -449,7 +482,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 3:15 PM</t>
+    <t>Monday, 18 August, 2025 3:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1140,7 +1173,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1173,7 +1206,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1239,7 +1272,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1248,14 +1281,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1265,14 +1298,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1281,14 +1314,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1298,14 +1331,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1338,7 +1371,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1354,7 +1387,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1364,14 +1397,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1380,14 +1413,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1397,14 +1430,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1453,7 +1486,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1463,14 +1496,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1486,7 +1519,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1496,14 +1529,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1512,14 +1545,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1529,11 +1562,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1545,14 +1578,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1562,11 +1595,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1578,14 +1611,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1595,14 +1628,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1611,14 +1644,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1628,14 +1661,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1644,14 +1677,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1661,11 +1694,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1677,31 +1710,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1710,14 +1743,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1727,11 +1760,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1743,14 +1776,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1760,14 +1793,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1776,31 +1809,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1809,31 +1842,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1842,14 +1875,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1859,14 +1892,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1875,14 +1908,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1892,14 +1925,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1908,31 +1941,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1941,14 +1974,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1958,11 +1991,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1974,14 +2007,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1991,14 +2024,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2007,31 +2040,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2040,31 +2073,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2073,31 +2106,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2106,31 +2139,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2139,31 +2172,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>129</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2172,31 +2205,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2205,31 +2238,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2245,24 +2278,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2271,31 +2304,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>43</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2304,31 +2337,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2337,31 +2370,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2370,66 +2403,198 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1872.7550000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>146</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>147</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>30</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>94</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>148</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>150</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>30</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>94</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>130</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>151</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>152</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>94</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>64</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>153</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>154</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>94</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>155</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2082.7550000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>157</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>158</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>159</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2638,10 +2803,30 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -149,6 +149,21 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -284,7 +299,13 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>12.0000</t>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
   </si>
   <si>
     <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
@@ -293,9 +314,6 @@
     <t>0:19</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>264.00</t>
   </si>
   <si>
@@ -428,10 +446,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>11:0</t>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -482,7 +500,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 3:26 PM</t>
+    <t>Monday, 18 August, 2025 3:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1387,24 +1405,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1413,14 +1431,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1430,11 +1448,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1446,14 +1464,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1463,11 +1481,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1479,14 +1497,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1496,14 +1514,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1512,14 +1530,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1529,14 +1547,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1545,14 +1563,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1562,14 +1580,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1578,14 +1596,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1595,11 +1613,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1611,14 +1629,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1628,14 +1646,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1644,14 +1662,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1661,14 +1679,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1677,14 +1695,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1694,11 +1712,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1710,14 +1728,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1727,11 +1745,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1743,14 +1761,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1760,11 +1778,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1776,14 +1794,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1793,14 +1811,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1809,14 +1827,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1826,14 +1844,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1842,20 +1860,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1863,10 +1881,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1875,7 +1893,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1892,14 +1910,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1908,31 +1926,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1941,31 +1959,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1974,14 +1992,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2014,13 +2032,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2047,7 +2065,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2064,7 +2082,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2080,7 +2098,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2090,11 +2108,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2106,14 +2124,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2123,14 +2141,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2146,7 +2164,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2156,11 +2174,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2172,31 +2190,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2212,21 +2230,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2238,24 +2256,24 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2278,21 +2296,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2304,31 +2322,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2337,31 +2355,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2370,31 +2388,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2403,31 +2421,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2436,31 +2454,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2469,28 +2487,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2502,31 +2520,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2535,66 +2553,132 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2082.7550000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>157</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>158</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>48</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>69</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>159</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>160</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>48</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>161</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2202.7550000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>163</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>164</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>165</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2823,10 +2907,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -152,7 +152,7 @@
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>0</t>
@@ -293,12 +293,15 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>-24.0000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
     <t>LIVABION 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -500,7 +503,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 3:43 PM</t>
+    <t>Monday, 18 August, 2025 3:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1867,7 +1870,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1877,14 +1880,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1893,14 +1896,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1910,11 +1913,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -1926,14 +1929,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1943,11 +1946,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1959,7 +1962,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1976,11 +1979,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1992,14 +1995,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2009,11 +2012,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2025,7 +2028,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2042,11 +2045,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>22</v>
@@ -2058,7 +2061,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2075,11 +2078,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2091,7 +2094,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2108,11 +2111,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>22</v>
@@ -2124,7 +2127,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2141,11 +2144,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2157,14 +2160,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2174,11 +2177,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2190,7 +2193,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2211,7 +2214,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2223,7 +2226,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2240,11 +2243,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2256,7 +2259,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2273,11 +2276,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>22</v>
@@ -2289,14 +2292,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2306,11 +2309,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2322,7 +2325,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2343,7 +2346,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>22</v>
@@ -2355,7 +2358,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2372,11 +2375,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2388,7 +2391,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2405,14 +2408,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2421,7 +2424,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2438,11 +2441,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>38</v>
@@ -2454,7 +2457,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2471,11 +2474,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2487,14 +2490,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2504,11 +2507,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2520,7 +2523,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2537,11 +2540,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>59</v>
@@ -2553,7 +2556,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2570,11 +2573,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>22</v>
@@ -2586,14 +2589,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2607,7 +2610,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>22</v>
@@ -2619,14 +2622,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2636,11 +2639,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
@@ -2648,13 +2651,13 @@
     </row>
     <row r="53" ht="24.75" customHeight="1">
       <c r="P53" s="13">
-        <v>2202.7550000000001</v>
+        <v>2166.7550000000001</v>
       </c>
       <c r="Q53" s="13"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c t="s" r="A54" s="14">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -2662,13 +2665,13 @@
       <c r="E54" s="14"/>
       <c r="F54" s="14"/>
       <c t="s" r="G54" s="15">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
       <c t="s" r="K54" s="17">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -164,6 +164,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CIPAZOLE FORT 1 GM 2 TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -185,12 +197,21 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>82.50</t>
   </si>
   <si>
@@ -236,9 +257,6 @@
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>79.00</t>
   </si>
   <si>
@@ -323,6 +341,15 @@
     <t>26.4000</t>
   </si>
   <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -368,9 +395,6 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
@@ -392,12 +416,30 @@
     <t>21.0000</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>TRITTICO 100MG 20 TAB.</t>
   </si>
   <si>
     <t>21.5000</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
   </si>
   <si>
@@ -437,12 +479,6 @@
     <t>ريكسونه رجالى</t>
   </si>
   <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -503,7 +539,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 3:50 PM</t>
+    <t>Monday, 18 August, 2025 4:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1441,7 +1477,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1451,14 +1487,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1467,14 +1503,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1550,14 +1586,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1566,14 +1602,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1583,14 +1619,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1599,14 +1635,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1616,14 +1652,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1632,14 +1668,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1649,14 +1685,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1689,7 +1725,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1705,7 +1741,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1738,7 +1774,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1755,7 +1791,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1771,7 +1807,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1804,7 +1840,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1837,7 +1873,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1854,7 +1890,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1870,7 +1906,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1887,7 +1923,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1896,14 +1932,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1913,11 +1949,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -1929,31 +1965,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1962,14 +1998,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1979,14 +2015,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1995,31 +2031,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2028,31 +2064,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2061,14 +2097,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2078,11 +2114,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2094,14 +2130,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2118,7 +2154,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2134,13 +2170,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2167,7 +2203,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2177,14 +2213,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2193,14 +2229,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2210,14 +2246,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2226,14 +2262,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2243,11 +2279,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>22</v>
@@ -2259,20 +2295,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2299,21 +2335,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2325,31 +2361,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2358,28 +2394,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>22</v>
@@ -2391,31 +2427,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>147</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2424,14 +2460,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2441,14 +2477,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2457,14 +2493,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2474,11 +2510,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>22</v>
@@ -2490,14 +2526,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2507,11 +2543,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2523,14 +2559,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2540,14 +2576,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2556,7 +2592,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2573,14 +2609,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2589,14 +2625,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2606,14 +2642,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2622,14 +2658,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2639,49 +2675,214 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2166.7550000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>164</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
         <v>165</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>48</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>127</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>166</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>30</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>48</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>167</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>169</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>30</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>48</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>151</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>170</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>171</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>48</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>76</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>172</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>173</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>48</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>174</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2407.7550000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>176</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>177</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>178</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2920,10 +3121,35 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -233,6 +233,18 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>-53.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -308,9 +320,30 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>6:1</t>
+  </si>
+  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -341,6 +374,18 @@
     <t>26.4000</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>MOTILIUM 10MG 40 F.C.TAB.</t>
   </si>
   <si>
@@ -350,6 +395,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -380,6 +431,12 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
   </si>
   <si>
@@ -395,6 +452,15 @@
     <t>50.00</t>
   </si>
   <si>
+    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>65.75</t>
+  </si>
+  <si>
+    <t>65.7500</t>
+  </si>
+  <si>
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
@@ -425,12 +491,27 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>THIODIO COMB TAB</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>74.2500</t>
+  </si>
+  <si>
     <t>TRITTICO 100MG 20 TAB.</t>
   </si>
   <si>
     <t>21.5000</t>
   </si>
   <si>
+    <t>TRYPSALIN 20 TABS</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -509,15 +590,18 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -527,6 +611,9 @@
     <t>19:0</t>
   </si>
   <si>
+    <t xml:space="preserve">معجون اسنان مسواك صغير </t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -539,7 +626,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 4:03 PM</t>
+    <t>Monday, 18 August, 2025 5:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1708,7 +1795,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1718,14 +1805,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1741,7 +1828,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1751,11 +1838,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1767,14 +1854,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1784,14 +1871,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1800,14 +1887,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1817,14 +1904,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1833,14 +1920,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1850,11 +1937,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1866,14 +1953,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1883,11 +1970,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1899,14 +1986,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1916,11 +2003,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1932,14 +2019,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1949,14 +2036,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1965,14 +2052,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1982,14 +2069,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2005,7 +2092,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2022,7 +2109,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2038,7 +2125,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2048,14 +2135,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2064,14 +2151,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2088,7 +2175,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2097,14 +2184,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2114,14 +2201,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2130,31 +2217,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2163,31 +2250,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2196,14 +2283,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2213,14 +2300,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2229,14 +2316,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2246,14 +2333,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2262,14 +2349,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2279,14 +2366,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2295,14 +2382,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2312,14 +2399,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2328,28 +2415,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>22</v>
@@ -2361,14 +2448,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2378,11 +2465,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2394,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2411,14 +2498,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2427,14 +2514,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2444,11 +2531,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>22</v>
@@ -2460,28 +2547,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2493,20 +2580,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2533,21 +2620,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>22</v>
@@ -2559,28 +2646,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>22</v>
@@ -2592,14 +2679,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2609,14 +2696,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2625,31 +2712,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2658,31 +2745,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2691,28 +2778,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>22</v>
@@ -2724,31 +2811,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2757,14 +2844,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2774,11 +2861,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2790,14 +2877,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2807,11 +2894,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>76</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -2823,14 +2910,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2840,49 +2927,412 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2407.7550000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>176</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>177</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>182</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>41</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>48</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>53</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>183</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>30</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>48</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>184</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>187</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>30</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>48</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>188</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>190</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>52</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>48</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>174</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>191</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>192</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>48</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>146</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>193</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>192</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>48</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>194</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>195</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>30</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>48</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>196</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>197</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>30</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>48</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
         <v>178</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>198</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>199</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>48</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>80</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>200</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>41</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>48</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>174</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>201</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>202</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>48</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>203</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2885.2550000000001</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>205</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>206</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>207</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3146,10 +3596,65 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -77,39 +77,42 @@
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>CANDALKAN 4MG 14 TABLETS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>CANDALKAN 4MG 14 TABLETS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -188,9 +191,6 @@
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
@@ -359,9 +359,6 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
   </si>
   <si>
@@ -578,9 +575,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
@@ -626,7 +620,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 5:14 PM</t>
+    <t>Monday, 18 August, 2025 5:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1333,7 +1327,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1343,14 +1337,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1416,7 +1410,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1425,14 +1419,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1442,11 +1436,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1458,14 +1452,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1475,14 +1469,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1491,14 +1485,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1508,14 +1502,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1524,31 +1518,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1557,14 +1551,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1574,14 +1568,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1590,7 +1584,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1607,11 +1601,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1623,14 +1617,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1696,7 +1690,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1762,7 +1756,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1779,7 +1773,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1795,7 +1789,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1911,7 +1905,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1927,7 +1921,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1993,7 +1987,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2026,7 +2020,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2076,7 +2070,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2131,7 +2125,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2191,7 +2185,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2205,10 +2199,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2217,28 +2211,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2250,14 +2244,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2267,11 +2261,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2283,14 +2277,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2300,11 +2294,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2316,7 +2310,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2337,7 +2331,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2349,7 +2343,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2366,11 +2360,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2382,14 +2376,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2399,11 +2393,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2415,7 +2409,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2428,18 +2422,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2448,14 +2442,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2469,7 +2463,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2481,14 +2475,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2498,11 +2492,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2514,7 +2508,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2531,14 +2525,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2547,7 +2541,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2564,14 +2558,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2580,7 +2574,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2597,14 +2591,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2613,14 +2607,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,14 +2624,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2646,14 +2640,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2663,14 +2657,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2679,7 +2673,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2692,15 +2686,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2712,14 +2706,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,11 +2723,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2745,7 +2739,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2762,11 +2756,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2778,7 +2772,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2795,14 +2789,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2811,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,14 +2822,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2844,7 +2838,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2857,18 +2851,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2877,31 +2871,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,20 +2904,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2931,10 +2925,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2943,31 +2937,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2976,7 +2970,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2989,18 +2983,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>185</v>
-      </c>
-      <c t="s" r="Q59" s="12">
-        <v>186</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3009,7 +3003,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3022,18 +3016,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>38</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3042,31 +3036,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,31 +3069,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,31 +3102,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3141,7 +3135,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3154,18 +3148,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,7 +3168,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3187,18 +3181,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3207,20 +3201,20 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3228,10 +3222,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3240,31 +3234,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3273,42 +3267,42 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
       <c r="P69" s="13">
-        <v>2885.2550000000001</v>
+        <v>2920.2550000000001</v>
       </c>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c t="s" r="A70" s="14">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -3316,13 +3310,13 @@
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
       <c t="s" r="G70" s="15">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
       <c r="J70" s="16"/>
       <c t="s" r="K70" s="17">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -74,6 +74,30 @@
     <t>12.4800</t>
   </si>
   <si>
+    <t>ANTOX 30 TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
+    <t>APEXIDONE 1MG/ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -89,9 +113,6 @@
     <t>BRUFEN 200MG 30 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -101,18 +122,12 @@
     <t>CANDALKAN 4MG 14 TABLETS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -320,6 +335,24 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>IROSPECT 20 PIECES</t>
   </si>
   <si>
@@ -335,24 +368,27 @@
     <t>120.00</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
     <t>6:1</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>-24.0000</t>
   </si>
   <si>
     <t>0:-2</t>
   </si>
   <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
     <t>LIVABION 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -497,6 +533,15 @@
     <t>74.2500</t>
   </si>
   <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
     <t>TRITTICO 100MG 20 TAB.</t>
   </si>
   <si>
@@ -506,9 +551,6 @@
     <t>TRYPSALIN 20 TABS</t>
   </si>
   <si>
-    <t>75.0000</t>
-  </si>
-  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -563,9 +605,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>34.0000</t>
-  </si>
-  <si>
     <t>17:0</t>
   </si>
   <si>
@@ -620,7 +659,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 5:33 PM</t>
+    <t>Monday, 18 August, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1327,7 +1366,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1337,14 +1376,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1370,14 +1409,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1393,7 +1432,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1403,14 +1442,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1419,14 +1458,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1436,11 +1475,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1452,14 +1491,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1469,14 +1508,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1485,14 +1524,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1502,14 +1541,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1518,31 +1557,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1551,14 +1590,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1568,14 +1607,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1584,31 +1623,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1617,14 +1656,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1634,14 +1673,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1650,14 +1689,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1667,14 +1706,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1683,14 +1722,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1700,11 +1739,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1716,14 +1755,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1733,14 +1772,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1749,14 +1788,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1766,14 +1805,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1789,7 +1828,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1799,14 +1838,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1815,14 +1854,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1832,14 +1871,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1848,14 +1887,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1865,14 +1904,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1881,14 +1920,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1898,14 +1937,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1914,14 +1953,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1931,11 +1970,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1947,14 +1986,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1964,14 +2003,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1980,14 +2019,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1997,11 +2036,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2013,14 +2052,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2030,11 +2069,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2046,14 +2085,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2063,14 +2102,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2079,14 +2118,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2096,11 +2135,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2112,31 +2151,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2145,14 +2184,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2162,14 +2201,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2178,14 +2217,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2195,14 +2234,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2211,31 +2250,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2244,28 +2283,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2277,14 +2316,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2294,14 +2333,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2310,14 +2349,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2327,14 +2366,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2343,14 +2382,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2360,14 +2399,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2376,31 +2415,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2409,31 +2448,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2442,14 +2481,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2459,14 +2498,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2475,14 +2514,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2492,11 +2531,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2508,14 +2547,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2525,14 +2564,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2541,14 +2580,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2558,14 +2597,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2574,31 +2613,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2607,14 +2646,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>32</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2624,14 +2663,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2640,14 +2679,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2657,14 +2696,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2673,7 +2712,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2686,18 +2725,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2706,14 +2745,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2723,14 +2762,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2739,14 +2778,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2756,14 +2795,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2772,14 +2811,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,14 +2828,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2805,14 +2844,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,14 +2861,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,31 +2877,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2871,31 +2910,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2904,31 +2943,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,31 +2976,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2970,31 +3009,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>185</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3003,31 +3042,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3036,31 +3075,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3082,18 +3121,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,31 +3141,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3135,31 +3174,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3168,31 +3207,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3201,31 +3240,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3234,31 +3273,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3267,66 +3306,264 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2920.2550000000001</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>204</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>203</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>204</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>54</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>205</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>206</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>26</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>54</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>207</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>208</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>26</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>54</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>191</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>209</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>210</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>54</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>85</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>211</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>47</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>54</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>187</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>212</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>213</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>54</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>214</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3474.0549999999998</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>216</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>217</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>218</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3645,10 +3882,40 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -659,7 +659,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 5:36 PM</t>
+    <t>Monday, 18 August, 2025 5:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -659,7 +668,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 5:54 PM</t>
+    <t>Monday, 18 August, 2025 6:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1828,7 +1837,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1838,14 +1847,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1861,7 +1870,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1871,14 +1880,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1937,14 +1946,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1953,14 +1962,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1993,7 +2002,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2010,7 +2019,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2026,7 +2035,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2043,7 +2052,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2059,7 +2068,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2092,7 +2101,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2125,7 +2134,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2158,7 +2167,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2175,7 +2184,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2191,7 +2200,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2208,7 +2217,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2224,7 +2233,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2241,7 +2250,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2274,7 +2283,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2290,13 +2299,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2304,7 +2313,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2316,31 +2325,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2349,14 +2358,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2366,14 +2375,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2389,7 +2398,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2403,7 +2412,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>28</v>
@@ -2415,20 +2424,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2436,10 +2445,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2448,31 +2457,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>32</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2505,7 +2514,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2521,7 +2530,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2547,7 +2556,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2564,7 +2573,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2587,7 +2596,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2597,11 +2606,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2613,20 +2622,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2637,7 +2646,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2653,24 +2662,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2679,14 +2688,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2696,7 +2705,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2719,7 +2728,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2733,10 +2742,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2745,7 +2754,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2762,11 +2771,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>28</v>
@@ -2818,7 +2827,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2828,11 +2837,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -2844,14 +2853,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2884,13 +2893,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2901,7 +2910,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2917,13 +2926,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2934,7 +2943,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2950,7 +2959,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2976,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2993,11 +3002,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3026,14 +3035,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3049,7 +3058,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3082,13 +3091,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3115,7 +3124,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3125,11 +3134,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3141,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3158,11 +3167,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3191,11 +3200,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>28</v>
@@ -3207,14 +3216,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>59</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>198</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3261,10 +3270,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>167</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>165</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3323,11 +3332,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3339,14 +3348,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3356,11 +3365,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3372,14 +3381,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3389,14 +3398,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3405,7 +3414,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3438,14 +3447,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3455,11 +3464,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>85</v>
+        <v>194</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3471,14 +3480,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3488,11 +3497,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>187</v>
+        <v>88</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3504,14 +3513,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3521,49 +3530,82 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3474.0549999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>215</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
         <v>216</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>54</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
         <v>217</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>218</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3562.0549999999998</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>219</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>220</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>221</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3912,10 +3954,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -98,6 +98,27 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -110,6 +131,15 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>BRONCHOPHANE 125ML SYRUP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>BRUFEN 200MG 30 TAB</t>
   </si>
   <si>
@@ -152,9 +182,6 @@
     <t>172.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -245,12 +272,21 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>7:3</t>
   </si>
   <si>
     <t>111.8400</t>
   </si>
   <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -272,10 +308,7 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
+    <t>8:2</t>
   </si>
   <si>
     <t>3.8400</t>
@@ -452,6 +485,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -506,12 +548,21 @@
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>122.00</t>
   </si>
   <si>
     <t>122.0000</t>
   </si>
   <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>-35.6400</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -569,6 +620,18 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
   </si>
   <si>
@@ -581,63 +644,69 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>25.00</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>ديتول وسط</t>
+  </si>
+  <si>
+    <t>ريكسونه رجالى</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>شفاط ثدي الجو</t>
+  </si>
+  <si>
     <t>25.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>36:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>ديتول وسط</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>ريكسونه رجالى</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>شفاط ثدي الجو</t>
-  </si>
-  <si>
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>100.0000</t>
   </si>
   <si>
     <t>فرشاه فوكس</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -662,13 +731,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>Monday, 18 August, 2025 6:00 PM</t>
+    <t>Monday, 18 August, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1441,7 +1504,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1458,7 +1521,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1467,14 +1530,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1491,7 +1554,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1507,7 +1570,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1524,7 +1587,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1533,14 +1596,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1557,7 +1620,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1573,7 +1636,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1583,14 +1646,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1599,14 +1662,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1616,11 +1679,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>28</v>
@@ -1632,31 +1695,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1665,14 +1728,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1682,14 +1745,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1698,14 +1761,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1715,14 +1778,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1731,31 +1794,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1764,14 +1827,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1781,14 +1844,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1797,14 +1860,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1814,11 +1877,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1830,14 +1893,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,14 +1910,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1863,14 +1926,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1880,14 +1943,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1903,7 +1966,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1913,14 +1976,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1929,14 +1992,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1946,14 +2009,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1979,14 +2042,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1995,14 +2058,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2012,11 +2075,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2028,14 +2091,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2045,14 +2108,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2061,14 +2124,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2078,14 +2141,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2094,14 +2157,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2111,11 +2174,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2127,14 +2190,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2144,11 +2207,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2160,14 +2223,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2177,14 +2240,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2193,14 +2256,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2210,14 +2273,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2226,14 +2289,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2243,11 +2306,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2259,14 +2322,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2276,14 +2339,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2292,14 +2355,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2309,11 +2372,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2325,31 +2388,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2365,7 +2428,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2375,14 +2438,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2391,7 +2454,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2408,11 +2471,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>28</v>
@@ -2424,14 +2487,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2441,14 +2504,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2464,24 +2527,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2490,14 +2553,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2507,14 +2570,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2523,14 +2586,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2540,14 +2603,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2556,14 +2619,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,14 +2636,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2589,31 +2652,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2622,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2639,11 +2702,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2655,31 +2718,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2688,14 +2751,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2705,11 +2768,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2721,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2738,11 +2801,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2754,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2771,14 +2834,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2794,7 +2857,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,14 +2867,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2820,28 +2883,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>28</v>
@@ -2853,14 +2916,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2933,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2949,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,14 +2966,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2919,31 +2982,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2952,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,11 +3032,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>28</v>
@@ -2985,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,14 +3065,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3025,7 +3088,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,14 +3098,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3051,14 +3114,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,11 +3131,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>28</v>
@@ -3084,7 +3147,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3101,11 +3164,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>28</v>
@@ -3117,31 +3180,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,28 +3213,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3183,31 +3246,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3216,31 +3279,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3249,7 +3312,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3262,18 +3325,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>201</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3282,31 +3345,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>168</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3315,28 +3378,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>28</v>
@@ -3348,31 +3411,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3381,31 +3444,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3414,31 +3477,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3447,28 +3510,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>195</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3480,28 +3543,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3513,31 +3576,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,66 +3609,330 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>227</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>67</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>63</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>212</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>229</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>185</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>63</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>174</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>231</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>204</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>63</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>214</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>232</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>26</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>63</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>233</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>234</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>26</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>63</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
         <v>218</v>
       </c>
-      <c t="s" r="Q75" s="12">
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3562.0549999999998</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>219</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>220</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
-        <v>221</v>
-      </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>235</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>236</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>63</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>41</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>237</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>33</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>63</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>212</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>238</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>239</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>63</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>30</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3952.6149999999998</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>240</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>241</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>242</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3959,10 +4286,50 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -731,7 +731,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 7:10 PM</t>
+    <t>Monday, 18 August, 2025 7:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
@@ -149,6 +161,18 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CANDALKAN 4MG 14 TABLETS</t>
   </si>
   <si>
@@ -260,6 +284,27 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -269,6 +314,12 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -515,6 +566,15 @@
     <t>108.0000</t>
   </si>
   <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -548,9 +608,6 @@
     <t>SINEMET 25/250 MG 20 TABS.</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>122.00</t>
   </si>
   <si>
@@ -566,9 +623,6 @@
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>21.00</t>
   </si>
   <si>
@@ -719,7 +773,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>48.0000</t>
   </si>
   <si>
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
@@ -731,7 +788,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 7:11 PM</t>
+    <t>Monday, 18 August, 2025 7:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1570,7 +1627,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1580,14 +1637,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1603,7 +1660,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1620,7 +1677,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1629,14 +1686,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1646,14 +1703,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1662,14 +1719,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1679,14 +1736,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1695,14 +1752,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1712,14 +1769,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1728,14 +1785,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1752,7 +1809,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1785,7 +1842,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1807,18 +1864,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1827,14 +1884,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1844,11 +1901,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>28</v>
@@ -1860,31 +1917,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1893,14 +1950,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1910,14 +1967,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1926,14 +1983,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1943,14 +2000,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1959,14 +2016,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1976,11 +2033,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1992,14 +2049,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2009,14 +2066,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2025,14 +2082,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2042,14 +2099,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2058,14 +2115,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2075,11 +2132,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2091,14 +2148,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2108,14 +2165,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2124,14 +2181,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2141,14 +2198,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2157,14 +2214,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2174,11 +2231,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2190,14 +2247,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2207,14 +2264,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2223,14 +2280,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2240,14 +2297,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2256,14 +2313,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2273,14 +2330,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2289,14 +2346,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2306,14 +2363,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2322,14 +2379,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2339,11 +2396,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2355,14 +2412,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2372,11 +2429,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2388,14 +2445,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2405,14 +2462,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2421,14 +2478,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2438,11 +2495,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2454,14 +2511,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2471,14 +2528,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2487,14 +2544,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2504,11 +2561,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2520,28 +2577,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2553,14 +2610,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2570,14 +2627,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2586,14 +2643,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2603,14 +2660,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2619,14 +2676,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2636,11 +2693,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>28</v>
@@ -2652,31 +2709,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2685,28 +2742,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2725,7 +2782,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2735,14 +2792,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2751,14 +2808,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2768,14 +2825,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2784,14 +2841,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2801,14 +2858,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2817,31 +2874,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2850,14 +2907,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,11 +2924,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2883,31 +2940,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2916,14 +2973,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2933,11 +2990,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2949,14 +3006,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2966,11 +3023,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2982,14 +3039,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2999,14 +3056,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3015,14 +3072,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3032,14 +3089,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3048,28 +3105,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -3081,14 +3138,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3098,14 +3155,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3114,14 +3171,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3131,14 +3188,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3147,14 +3204,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,14 +3221,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3180,31 +3237,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3213,14 +3270,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,11 +3287,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>28</v>
@@ -3246,14 +3303,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3263,14 +3320,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3279,14 +3336,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3296,14 +3353,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3312,14 +3369,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3329,11 +3386,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3345,14 +3402,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3362,11 +3419,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3378,31 +3435,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3411,31 +3468,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>152</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3444,31 +3501,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3477,31 +3534,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3510,28 +3567,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>41</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3550,21 +3607,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3576,31 +3633,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>224</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,31 +3666,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>185</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3642,31 +3699,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3675,31 +3732,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3708,28 +3765,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -3741,31 +3798,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3774,7 +3831,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3787,18 +3844,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3807,31 +3864,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3840,28 +3897,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -3873,66 +3930,264 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>249</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>222</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>71</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>232</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>250</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>26</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>71</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>251</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
         <v>31</v>
       </c>
-      <c t="s" r="Q83" s="12">
+      <c t="s" r="Q85" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>252</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>26</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>71</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>236</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3952.6149999999998</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>240</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>241</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
-        <v>242</v>
-      </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>253</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>254</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>71</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>45</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>256</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>33</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>71</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>230</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>257</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>258</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>71</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>30</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4185.5200000000004</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>259</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>260</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>261</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4326,10 +4581,40 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -788,7 +788,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 7:20 PM</t>
+    <t>Monday, 18 August, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>COBAL 500MCG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -296,318 +305,360 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>111.8400</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>-53.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>158.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>HIDRASEC 100 MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>-24.0000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>PRIMO PLUS TOPICAL LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>65.75</t>
+  </si>
+  <si>
+    <t>65.7500</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>111.8400</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>-53.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>158.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GOURYST 0.5 MG 100 TABS.</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>IROSPECT 20 PIECES</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>-24.0000</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>LAMICTAL 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>143.0000</t>
-  </si>
-  <si>
-    <t>LIVABION 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
-  </si>
-  <si>
-    <t>0:19</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>26.4000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>PRIMO PLUS TOPICAL LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
-  </si>
-  <si>
-    <t>65.75</t>
-  </si>
-  <si>
-    <t>65.7500</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
     <t>122.00</t>
   </si>
   <si>
@@ -737,7 +788,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -773,9 +827,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>18:0</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -788,7 +839,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 7:22 PM</t>
+    <t>Monday, 18 August, 2025 8:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2056,7 +2107,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2066,14 +2117,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2082,14 +2133,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2106,7 +2157,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2122,7 +2173,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2155,7 +2206,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2165,11 +2216,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2181,14 +2232,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2205,7 +2256,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2221,7 +2272,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2231,14 +2282,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2247,14 +2298,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2264,14 +2315,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2280,14 +2331,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2297,14 +2348,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2313,14 +2364,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2330,14 +2381,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2346,14 +2397,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2363,14 +2414,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2379,14 +2430,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2396,14 +2447,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2412,14 +2463,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2429,14 +2480,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2445,14 +2496,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2462,14 +2513,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2478,14 +2529,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2495,11 +2546,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2511,14 +2562,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2528,14 +2579,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2544,14 +2595,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2561,11 +2612,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2577,14 +2628,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2594,11 +2645,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2610,14 +2661,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2627,14 +2678,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2643,14 +2694,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2660,11 +2711,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2676,14 +2727,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2693,11 +2744,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>28</v>
@@ -2709,7 +2760,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2726,14 +2777,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2742,7 +2793,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2755,15 +2806,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2775,14 +2826,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2792,14 +2843,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2808,14 +2859,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2825,14 +2876,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2841,31 +2892,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2874,31 +2925,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2907,14 +2958,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2924,14 +2975,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2940,7 +2991,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2957,14 +3008,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2973,31 +3024,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3006,14 +3057,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3023,11 +3074,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3039,14 +3090,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3056,14 +3107,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3072,14 +3123,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3089,11 +3140,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3105,31 +3156,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3138,14 +3189,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3155,14 +3206,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3171,14 +3222,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>191</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3188,11 +3239,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3204,31 +3255,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3237,14 +3288,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3254,11 +3305,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>28</v>
@@ -3270,14 +3321,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3287,14 +3338,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3303,14 +3354,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3320,14 +3371,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3336,14 +3387,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3353,14 +3404,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3369,14 +3420,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3386,11 +3437,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3402,14 +3453,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3419,14 +3470,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3435,31 +3486,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3468,14 +3519,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3485,11 +3536,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3501,14 +3552,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3518,14 +3569,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3534,14 +3585,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3551,14 +3602,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>144</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3567,14 +3618,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3584,11 +3635,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3600,31 +3651,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3633,14 +3684,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3650,11 +3701,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3666,31 +3717,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>229</v>
+        <v>75</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>230</v>
+        <v>63</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3699,31 +3750,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3732,20 +3783,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3772,21 +3823,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -3798,28 +3849,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -3831,14 +3882,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3848,14 +3899,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>242</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3864,14 +3915,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3881,14 +3932,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>222</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3897,14 +3948,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3914,11 +3965,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -3930,14 +3981,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3947,14 +3998,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3963,14 +4014,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3980,11 +4031,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>28</v>
@@ -3996,7 +4047,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4013,14 +4064,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>85</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4029,7 +4080,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4046,14 +4097,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>237</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4062,14 +4113,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4079,14 +4130,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4095,14 +4146,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4112,14 +4163,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4128,14 +4179,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4145,49 +4196,214 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4185.5200000000004</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>259</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>268</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>26</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>71</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>269</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>270</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>26</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>71</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>253</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>271</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
         <v>260</v>
       </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>261</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>71</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>45</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>273</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>33</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>71</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>247</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>274</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>275</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>71</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>30</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4433.3900000000003</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>276</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>277</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>278</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4611,10 +4827,35 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -839,7 +839,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 8:05 PM</t>
+    <t>Monday, 18 August, 2025 8:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -272,6 +272,18 @@
     <t>10.8900</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -335,10 +347,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>111.8400</t>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>159.8400</t>
+  </si>
+  <si>
+    <t>3:1</t>
   </si>
   <si>
     <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
@@ -392,6 +407,15 @@
     <t>3.8400</t>
   </si>
   <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -539,9 +563,6 @@
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -554,15 +575,21 @@
     <t>100.00</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
     <t>30.0000</t>
   </si>
   <si>
+    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>151.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -584,13 +611,13 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>PANADOL EXTRA 48 TAB</t>
@@ -632,9 +659,6 @@
     <t>PRIMO PLUS TOPICAL LOTION 120 ML</t>
   </si>
   <si>
-    <t>50.00</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -764,6 +788,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>جنتيانا نقط</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -788,45 +821,48 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>36.0000</t>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>شفاط ثدي الجو</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>صوفي طويل جدا</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>فرشاه فوكس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
   </si>
   <si>
     <t>18:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>شفاط ثدي الجو</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>صوفي طويل جدا</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>فرشاه فوكس</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>ماسك جلسات اطفال</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -839,7 +875,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 8:07 PM</t>
+    <t>Monday, 18 August, 2025 8:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2157,7 +2193,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2173,7 +2209,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2183,14 +2219,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2199,14 +2235,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2216,11 +2252,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2232,14 +2268,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2256,7 +2292,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2272,7 +2308,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2282,14 +2318,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2298,14 +2334,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2315,14 +2351,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2331,14 +2367,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2348,14 +2384,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2364,14 +2400,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2381,7 +2417,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2404,7 +2440,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2414,14 +2450,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2430,14 +2466,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2447,14 +2483,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2463,14 +2499,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2480,14 +2516,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2496,14 +2532,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2513,14 +2549,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2529,14 +2565,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2546,11 +2582,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2562,14 +2598,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2579,14 +2615,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2595,14 +2631,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2612,11 +2648,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2628,14 +2664,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2645,14 +2681,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2661,14 +2697,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2678,11 +2714,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2694,14 +2730,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2711,11 +2747,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2727,14 +2763,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2744,14 +2780,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2760,14 +2796,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2777,14 +2813,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2793,14 +2829,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2810,14 +2846,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2826,14 +2862,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2843,11 +2879,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>28</v>
@@ -2859,14 +2895,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2876,11 +2912,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2892,31 +2928,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2925,14 +2961,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2942,14 +2978,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2958,31 +2994,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2991,14 +3027,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3008,14 +3044,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3024,31 +3060,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>172</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3057,14 +3093,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3074,14 +3110,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3097,21 +3133,21 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>22</v>
@@ -3123,14 +3159,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3140,11 +3176,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3156,14 +3192,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3173,14 +3209,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3189,14 +3225,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3206,7 +3242,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3229,7 +3265,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3239,14 +3275,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3255,31 +3291,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3288,14 +3324,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3305,14 +3341,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3321,14 +3357,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3338,14 +3374,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3354,31 +3390,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3387,14 +3423,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3404,14 +3440,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3420,14 +3456,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3437,14 +3473,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3453,14 +3489,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3470,14 +3506,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3486,14 +3522,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3503,14 +3539,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3519,14 +3555,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>215</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3536,11 +3572,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>216</v>
+        <v>89</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>28</v>
@@ -3552,14 +3588,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3569,14 +3605,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>123</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3585,14 +3621,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3602,11 +3638,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>28</v>
@@ -3618,14 +3654,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>223</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3658,24 +3694,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3684,14 +3720,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,11 +3737,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3717,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,14 +3770,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3757,21 +3793,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>156</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3783,14 +3819,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,11 +3836,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -3816,14 +3852,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3833,14 +3869,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>240</v>
+        <v>63</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3856,7 +3892,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3866,14 +3902,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3882,31 +3918,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3915,31 +3951,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3948,28 +3984,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>252</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -3981,14 +4017,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3998,14 +4034,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4021,7 +4057,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4031,14 +4067,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>76</v>
+        <v>257</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4047,14 +4083,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4064,14 +4100,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>260</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4080,14 +4116,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4097,14 +4133,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>239</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4113,14 +4149,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4130,11 +4166,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>28</v>
@@ -4146,14 +4182,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4163,14 +4199,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4179,14 +4215,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>239</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4196,14 +4232,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4212,7 +4248,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4229,14 +4265,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>88</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4245,14 +4281,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4262,11 +4298,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>28</v>
@@ -4278,14 +4314,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4295,11 +4331,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>75</v>
@@ -4311,14 +4347,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4328,11 +4364,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4344,14 +4380,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>275</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4361,49 +4397,181 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>31</v>
       </c>
       <c t="s" r="Q94" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>281</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>26</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>71</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>264</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q95" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4433.3900000000003</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>276</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>277</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>278</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>282</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>283</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>71</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>45</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>285</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>33</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>71</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>255</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>286</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>287</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>71</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>30</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4855.3900000000003</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>288</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>289</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>290</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4852,10 +5020,30 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -542,6 +542,12 @@
     <t>143.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
     <t>LIVABION 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -749,6 +755,12 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -875,7 +887,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 8:09 PM</t>
+    <t>Monday, 18 August, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3106,7 +3118,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3114,10 +3126,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3133,24 +3145,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>180</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3159,31 +3171,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3192,14 +3204,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3209,14 +3221,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3232,7 +3244,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3242,14 +3254,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3265,7 +3277,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3275,14 +3287,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3291,14 +3303,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3308,14 +3320,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3324,14 +3336,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3341,11 +3353,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3357,14 +3369,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3374,14 +3386,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3390,31 +3402,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3423,28 +3435,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>28</v>
@@ -3456,7 +3468,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3473,14 +3485,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3489,14 +3501,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3506,11 +3518,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3529,7 +3541,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3539,11 +3551,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3555,14 +3567,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3572,14 +3584,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3588,14 +3600,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,14 +3617,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>218</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3621,14 +3633,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3638,14 +3650,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3654,14 +3666,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,11 +3683,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3687,14 +3699,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3704,14 +3716,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>227</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3727,7 +3739,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,14 +3749,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3753,14 +3765,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,11 +3782,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>28</v>
@@ -3786,31 +3798,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3819,31 +3831,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3852,14 +3864,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,14 +3881,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>63</v>
+        <v>240</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3892,7 +3904,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,11 +3914,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3918,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,14 +3947,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3951,14 +3963,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3968,11 +3980,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>28</v>
@@ -3984,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4001,14 +4013,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4017,31 +4029,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4050,31 +4062,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>254</v>
+        <v>28</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4083,14 +4095,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4100,14 +4112,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>261</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4116,14 +4128,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4133,14 +4145,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4149,14 +4161,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,11 +4178,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>46</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>28</v>
@@ -4182,14 +4194,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,11 +4211,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>28</v>
@@ -4215,14 +4227,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4232,14 +4244,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>271</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4248,14 +4260,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4265,14 +4277,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>247</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4281,14 +4293,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4298,14 +4310,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>275</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4321,7 +4333,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4331,14 +4343,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>277</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>75</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4354,7 +4366,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4364,11 +4376,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>28</v>
@@ -4380,14 +4392,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4397,14 +4409,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4413,14 +4425,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>251</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4430,11 +4442,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4446,14 +4458,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>283</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4463,14 +4475,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>284</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4486,7 +4498,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4496,11 +4508,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>28</v>
@@ -4529,49 +4541,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>289</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>33</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>71</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>259</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>290</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>291</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>71</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>30</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>31</v>
       </c>
-      <c t="s" r="Q98" s="12">
+      <c t="s" r="Q100" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4855.3900000000003</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>288</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>289</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>290</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>4885.3900000000003</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>292</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>293</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>294</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5040,10 +5118,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -887,7 +887,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 8:11 PM</t>
+    <t>Monday, 18 August, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -296,6 +296,9 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>CURISAFE 500MG 8 CAPS</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -431,7 +434,7 @@
     <t>79.00</t>
   </si>
   <si>
-    <t>158.0000</t>
+    <t>237.0000</t>
   </si>
   <si>
     <t>GANATON 50 MG 30 F.C.TABS.</t>
@@ -887,7 +890,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 8:16 PM</t>
+    <t>Monday, 18 August, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2254,7 +2257,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2264,14 +2267,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2280,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2297,11 +2300,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2313,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2330,14 +2333,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2346,14 +2349,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2363,14 +2366,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2379,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2396,14 +2399,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2412,14 +2415,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2429,14 +2432,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2445,14 +2448,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2462,14 +2465,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2478,14 +2481,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2495,14 +2498,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2511,14 +2514,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2528,14 +2531,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2544,14 +2547,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2561,14 +2564,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2577,14 +2580,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2594,14 +2597,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2610,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2627,14 +2630,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2643,14 +2646,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2660,14 +2663,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2676,14 +2679,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2693,14 +2696,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2709,7 +2712,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2726,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2742,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2759,11 +2762,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2775,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2792,11 +2795,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2808,14 +2811,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2825,11 +2828,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2841,14 +2844,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2858,14 +2861,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2874,7 +2877,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2891,11 +2894,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>28</v>
@@ -2907,14 +2910,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,14 +2927,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2940,14 +2943,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2957,14 +2960,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2973,14 +2976,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2990,14 +2993,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3006,28 +3009,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3039,31 +3042,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3072,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3089,14 +3092,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3105,31 +3108,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3138,7 +3141,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3151,18 +3154,18 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3171,31 +3174,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3204,31 +3207,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3237,14 +3240,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3254,14 +3257,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3270,14 +3273,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3287,14 +3290,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>191</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3303,14 +3306,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3320,14 +3323,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>193</v>
+        <v>23</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,14 +3339,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,14 +3356,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3369,14 +3372,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3386,11 +3389,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3402,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3419,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3435,31 +3438,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3468,28 +3471,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>28</v>
@@ -3501,7 +3504,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3518,14 +3521,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3541,7 +3544,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3551,11 +3554,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3567,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3584,11 +3587,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3600,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,14 +3620,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>90</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3640,7 +3643,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>219</v>
+        <v>89</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>220</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3666,14 +3669,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,14 +3686,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3699,14 +3702,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,11 +3719,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>28</v>
@@ -3732,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>128</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3798,14 +3801,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,11 +3818,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>28</v>
@@ -3831,31 +3834,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3864,31 +3867,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3900,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,14 +3917,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3930,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,11 +3950,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3970,7 +3973,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3980,14 +3983,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3996,14 +3999,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4016,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4049,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>28</v>
+        <v>252</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,11 +4082,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>28</v>
@@ -4095,31 +4098,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>90</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4128,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,14 +4148,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4161,14 +4164,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>62</v>
+        <v>259</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,14 +4181,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>267</v>
+        <v>62</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,11 +4214,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>28</v>
@@ -4227,14 +4230,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4244,11 +4247,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>28</v>
@@ -4267,7 +4270,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4277,11 +4280,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4300,7 +4303,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4310,14 +4313,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>273</v>
+        <v>76</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>275</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,7 +4329,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4343,14 +4346,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,14 +4362,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4376,14 +4379,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>279</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,14 +4412,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>89</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,14 +4428,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>251</v>
+        <v>51</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4442,14 +4445,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4465,7 +4468,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4475,14 +4478,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4491,7 +4494,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4508,14 +4511,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4531,7 +4534,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,14 +4544,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,14 +4560,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4574,14 +4577,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4597,7 +4600,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,49 +4610,82 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>30</v>
+        <v>260</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>4885.3900000000003</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>291</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
         <v>292</v>
       </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>71</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>30</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5009.3900000000003</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
         <v>293</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
         <v>294</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>295</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5128,10 +5164,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -500,6 +500,12 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -749,6 +755,12 @@
     <t>TRYPSALIN 20 TABS</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -767,9 +779,6 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -848,6 +857,15 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>شامبو كلير للرجال 180مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
@@ -860,6 +878,12 @@
     <t>100.0000</t>
   </si>
   <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>فرشاه فوكس</t>
   </si>
   <si>
@@ -890,7 +914,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 8:17 PM</t>
+    <t>Monday, 18 August, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1762,7 +1786,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -2983,21 +3007,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>28</v>
@@ -3009,14 +3033,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3026,14 +3050,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3042,28 +3066,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3082,24 +3106,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3108,14 +3132,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3125,14 +3149,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>28</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3141,31 +3165,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3187,7 +3211,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3195,10 +3219,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3214,24 +3238,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3240,31 +3264,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3273,14 +3297,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,14 +3314,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3313,7 +3337,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3347,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>23</v>
+        <v>192</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3346,7 +3370,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3356,14 +3380,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>23</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3372,14 +3396,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3389,14 +3413,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3405,14 +3429,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3422,11 +3446,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3438,14 +3462,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,14 +3479,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,31 +3495,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,28 +3528,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>28</v>
@@ -3537,7 +3561,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3554,14 +3578,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,14 +3594,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,11 +3611,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3610,7 +3634,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,11 +3644,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3636,14 +3660,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,14 +3677,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3669,14 +3693,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3710,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,14 +3726,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3743,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,14 +3759,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,11 +3776,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>28</v>
@@ -3768,14 +3792,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3785,14 +3809,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>129</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3808,7 +3832,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,14 +3842,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,14 +3858,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,11 +3875,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>28</v>
@@ -3867,31 +3891,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,31 +3924,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3933,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3950,14 +3974,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>63</v>
+        <v>243</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3973,7 +3997,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,11 +4007,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3999,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,14 +4040,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4032,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4049,14 +4073,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4065,14 +4089,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4082,11 +4106,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>28</v>
@@ -4098,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4131,31 +4155,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>90</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,31 +4188,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>62</v>
+        <v>262</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>266</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4247,14 +4271,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4263,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4280,11 +4304,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4296,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,11 +4337,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>28</v>
@@ -4329,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4346,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>275</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>276</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4379,14 +4403,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>252</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4395,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4412,14 +4436,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4428,14 +4452,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4445,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>75</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>252</v>
+        <v>75</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4478,11 +4502,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4494,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4511,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4527,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4544,14 +4568,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4577,14 +4601,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>249</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4610,11 +4634,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4626,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>292</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4643,49 +4667,181 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>30</v>
+        <v>293</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>31</v>
       </c>
       <c t="s" r="Q101" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>294</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>26</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>71</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>272</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q102" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5009.3900000000003</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>293</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>294</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>295</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>296</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>71</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>45</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>298</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>33</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>71</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>263</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>299</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>300</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>71</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>30</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5305.3900000000003</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>301</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>302</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>303</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5169,10 +5325,30 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -914,7 +914,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 8:29 PM</t>
+    <t>Monday, 18 August, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>AUGMENTIN 457MG/5ML SUSP. 70 ML</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>137.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -284,6 +293,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
@@ -332,9 +350,6 @@
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>88.0000</t>
   </si>
   <si>
@@ -605,6 +620,12 @@
     <t>151.0000</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -623,6 +644,9 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -914,7 +938,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 8:31 PM</t>
+    <t>Monday, 18 August, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1777,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1763,14 +1787,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1779,14 +1803,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1803,7 +1827,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1812,14 +1836,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1829,14 +1853,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>46</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1852,7 +1876,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1869,7 +1893,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1885,7 +1909,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1895,14 +1919,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1911,14 +1935,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1951,7 +1975,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1961,14 +1985,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1977,14 +2001,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1994,14 +2018,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2010,14 +2034,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2027,14 +2051,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2043,28 +2067,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>28</v>
@@ -2076,28 +2100,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>28</v>
@@ -2109,14 +2133,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2133,7 +2157,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2149,7 +2173,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2182,7 +2206,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2215,7 +2239,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2225,14 +2249,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2241,14 +2265,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2258,14 +2282,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2274,7 +2298,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2291,11 +2315,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>28</v>
@@ -2307,14 +2331,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2324,14 +2348,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2340,14 +2364,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2357,14 +2381,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2380,7 +2404,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2390,14 +2414,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2406,14 +2430,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2423,14 +2447,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2439,14 +2463,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2456,14 +2480,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2479,7 +2503,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2489,14 +2513,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2505,14 +2529,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2522,14 +2546,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2538,14 +2562,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2555,14 +2579,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2571,14 +2595,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2588,14 +2612,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2611,7 +2635,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2628,7 +2652,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2637,14 +2661,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2654,14 +2678,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2670,14 +2694,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2687,14 +2711,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2703,14 +2727,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2720,11 +2744,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2736,14 +2760,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2753,14 +2777,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2769,14 +2793,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2786,11 +2810,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2802,14 +2826,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2819,14 +2843,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2835,14 +2859,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2852,11 +2876,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2868,14 +2892,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2885,11 +2909,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2901,14 +2925,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2918,14 +2942,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2934,14 +2958,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2951,14 +2975,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2967,14 +2991,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2984,14 +3008,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3000,7 +3024,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3013,11 +3037,11 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3040,7 +3064,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3057,7 +3081,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3079,18 +3103,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>85</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3099,31 +3123,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3139,7 +3163,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3149,14 +3173,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3165,31 +3189,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3198,31 +3222,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>181</v>
+        <v>23</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3238,7 +3262,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3252,7 +3276,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>28</v>
@@ -3264,20 +3288,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3285,10 +3309,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3297,14 +3321,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3314,14 +3338,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>190</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3330,28 +3354,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3370,7 +3394,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3380,11 +3404,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3396,14 +3420,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3413,14 +3437,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3446,11 +3470,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3462,14 +3486,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3479,14 +3503,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3495,14 +3519,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,14 +3536,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>207</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3528,31 +3552,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3561,14 +3585,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,14 +3602,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,14 +3618,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,14 +3635,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3627,14 +3651,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,14 +3668,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3660,31 +3684,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3693,14 +3717,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,11 +3734,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>89</v>
+        <v>220</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>90</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3726,14 +3750,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,14 +3767,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,14 +3783,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3800,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3792,14 +3816,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3809,14 +3833,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,14 +3849,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,14 +3866,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>129</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,14 +3882,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,14 +3899,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,14 +3915,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,11 +3932,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>28</v>
@@ -3924,31 +3948,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3957,14 +3981,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,14 +3998,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3990,14 +4014,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,14 +4031,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>63</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4023,14 +4047,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,14 +4064,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4056,31 +4080,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>249</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4096,7 +4120,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4129,7 +4153,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,7 +4163,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4162,7 +4186,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>46</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4196,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,14 +4212,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>28</v>
+        <v>257</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,11 +4229,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>259</v>
+        <v>70</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>28</v>
@@ -4221,31 +4245,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,31 +4278,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,28 +4311,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>28</v>
@@ -4320,28 +4344,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>271</v>
+        <v>28</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>28</v>
@@ -4353,31 +4377,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>28</v>
+        <v>270</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4386,31 +4410,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4419,31 +4443,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>279</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4452,31 +4476,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>279</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>46</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>249</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4492,21 +4516,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>283</v>
+        <v>48</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>284</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4518,28 +4542,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>28</v>
@@ -4551,31 +4575,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>89</v>
+        <v>285</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>75</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4584,31 +4608,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>290</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4617,28 +4641,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>28</v>
@@ -4650,31 +4674,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>31</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>92</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4683,31 +4707,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>92</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4716,31 +4740,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,28 +4773,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>28</v>
@@ -4782,66 +4806,198 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>300</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>31</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5305.3900000000003</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>301</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>302</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>26</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>74</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>280</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>303</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>304</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>74</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>48</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>306</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>33</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>74</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>271</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>307</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>308</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>74</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>30</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5581.3900000000003</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>309</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>310</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>311</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5345,10 +5501,30 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -644,6 +644,12 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -917,6 +923,9 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>كريم فيبكس الازرق</t>
+  </si>
+  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -938,7 +947,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 8:32 PM</t>
+    <t>Monday, 18 August, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3625,7 +3634,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3635,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>49</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>28</v>
+        <v>125</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3651,14 +3660,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3668,14 +3677,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>215</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3684,31 +3693,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>28</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3717,28 +3726,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>28</v>
@@ -3750,7 +3759,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3783,14 +3792,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3800,11 +3809,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3823,7 +3832,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3833,11 +3842,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3849,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3866,14 +3875,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3882,14 +3891,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3899,14 +3908,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>92</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3915,14 +3924,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3932,14 +3941,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3948,14 +3957,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3965,11 +3974,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>28</v>
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3998,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>134</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4021,7 +4030,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4031,14 +4040,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>28</v>
@@ -4080,31 +4089,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4113,31 +4122,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4146,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4163,14 +4172,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4186,7 +4195,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4196,11 +4205,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4229,14 +4238,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4252,7 +4261,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4262,11 +4271,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>70</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>28</v>
@@ -4278,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4295,14 +4304,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>110</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4318,7 +4327,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>46</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4328,14 +4337,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4344,14 +4353,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4361,11 +4370,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>28</v>
@@ -4377,31 +4386,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4410,14 +4419,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4431,10 +4440,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4443,14 +4452,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>65</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4460,14 +4469,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4476,14 +4485,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>279</v>
+        <v>65</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4493,11 +4502,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>28</v>
@@ -4509,14 +4518,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4526,11 +4535,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>48</v>
+        <v>282</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>49</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>28</v>
@@ -4542,14 +4551,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4559,11 +4568,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>28</v>
@@ -4575,14 +4584,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4592,14 +4601,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>287</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4608,7 +4617,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4625,14 +4634,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>49</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4648,7 +4657,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4662,10 +4671,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>292</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>28</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4674,7 +4683,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4691,7 +4700,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4714,7 +4723,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4724,14 +4733,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>92</v>
+        <v>273</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4747,7 +4756,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>298</v>
+        <v>54</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4757,14 +4766,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4780,7 +4789,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4790,11 +4799,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>273</v>
+        <v>160</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>28</v>
@@ -4806,14 +4815,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4823,14 +4832,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>31</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4856,14 +4865,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>28</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4872,14 +4881,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4889,14 +4898,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>78</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4905,14 +4914,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4922,11 +4931,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>28</v>
@@ -4938,14 +4947,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4955,49 +4964,115 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>309</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>33</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>74</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>273</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>310</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>311</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>74</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>30</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>31</v>
       </c>
-      <c t="s" r="Q109" s="12">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5581.3900000000003</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>309</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>310</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>311</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5632.3900000000003</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>312</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>313</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>314</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5521,10 +5596,20 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -44,24 +44,48 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -95,9 +119,6 @@
     <t>60.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -185,9 +206,6 @@
     <t>CANDALKAN 4MG 14 TABLETS</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -269,7 +287,10 @@
     <t>130.00</t>
   </si>
   <si>
-    <t>42.9000</t>
+    <t>128.7000</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>COBAL 500MCG 30 F.C.TAB</t>
@@ -314,6 +335,15 @@
     <t>0.0000</t>
   </si>
   <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
     <t>CURISAFE 500MG 8 CAPS</t>
   </si>
   <si>
@@ -374,6 +404,15 @@
     <t>3:1</t>
   </si>
   <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
     <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
   </si>
   <si>
@@ -443,6 +482,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FROST TOPICAL SPRAY 100 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
@@ -533,9 +581,6 @@
     <t>IROSPECT 20 PIECES</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
     <t>70.0000</t>
   </si>
   <si>
@@ -572,6 +617,15 @@
     <t>300.00</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>LIVABION 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -662,9 +716,6 @@
     <t>69.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -701,6 +752,15 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>PRIMO PLUS TOPICAL LOTION 120 ML</t>
   </si>
   <si>
@@ -785,6 +845,9 @@
     <t>TRYPSALIN 20 TABS</t>
   </si>
   <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -860,9 +923,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>ديتول وسط</t>
   </si>
   <si>
@@ -920,9 +980,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>كريم فيبكس الازرق</t>
   </si>
   <si>
@@ -932,9 +989,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>18:0</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -947,7 +1001,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 8:41 PM</t>
+    <t>Monday, 18 August, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1638,7 +1692,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1697,14 +1751,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1720,7 +1774,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1730,14 +1784,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1746,14 +1800,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1763,14 +1817,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1786,7 +1840,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1803,7 +1857,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1836,7 +1890,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1852,7 +1906,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1869,7 +1923,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1878,14 +1932,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1902,7 +1956,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1918,7 +1972,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1935,7 +1989,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1944,14 +1998,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1968,7 +2022,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1984,7 +2038,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2001,7 +2055,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2034,7 +2088,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2050,7 +2104,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2060,14 +2114,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2076,14 +2130,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2093,14 +2147,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2109,31 +2163,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2142,14 +2196,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2159,14 +2213,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2175,31 +2229,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2208,14 +2262,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2232,7 +2286,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2248,7 +2302,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2281,7 +2335,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2291,14 +2345,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2314,7 +2368,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2331,7 +2385,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2364,7 +2418,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2380,7 +2434,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2390,14 +2444,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2406,14 +2460,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2423,14 +2477,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2439,28 +2493,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2472,14 +2526,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2489,14 +2543,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2512,7 +2566,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2522,14 +2576,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2538,14 +2592,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2555,11 +2609,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2571,14 +2625,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2588,14 +2642,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2604,14 +2658,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2621,14 +2675,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>125</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2637,14 +2691,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2654,11 +2708,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2670,14 +2724,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2687,14 +2741,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>130</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2710,7 +2764,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2727,7 +2781,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2736,14 +2790,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2753,14 +2807,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2769,14 +2823,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2786,14 +2840,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2802,14 +2856,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2819,14 +2873,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2842,7 +2896,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2859,7 +2913,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>98</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2868,14 +2922,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2885,11 +2939,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2901,14 +2955,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2918,14 +2972,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2934,14 +2988,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2951,11 +3005,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2967,14 +3021,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2984,14 +3038,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3000,14 +3054,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3017,14 +3071,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3033,14 +3087,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3050,14 +3104,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3066,14 +3120,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3083,11 +3137,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3099,31 +3153,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3132,14 +3186,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3149,14 +3203,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3165,14 +3219,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3182,14 +3236,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3198,31 +3252,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3231,14 +3285,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3248,14 +3302,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3264,31 +3318,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3297,31 +3351,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3330,14 +3384,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3347,14 +3401,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3363,31 +3417,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3403,7 +3457,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>120</v>
+        <v>194</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3413,14 +3467,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>31</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3429,14 +3483,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3446,14 +3500,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3462,28 +3516,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3495,14 +3549,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3512,14 +3566,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3528,14 +3582,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3545,14 +3599,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3561,31 +3615,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3594,14 +3648,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3611,11 +3665,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3627,14 +3681,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3644,14 +3698,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3660,14 +3714,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3677,14 +3731,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>49</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3693,14 +3747,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3710,14 +3764,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>217</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3726,7 +3780,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3739,18 +3793,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3759,14 +3813,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3776,14 +3830,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3792,14 +3846,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3809,11 +3863,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3825,14 +3879,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3846,10 +3900,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3858,14 +3912,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3875,14 +3929,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3891,14 +3945,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3908,14 +3962,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>92</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3924,31 +3978,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3957,14 +4011,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3974,14 +4028,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3990,14 +4044,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4007,14 +4061,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,14 +4077,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,14 +4094,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4056,14 +4110,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4073,14 +4127,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4089,14 +4143,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4106,14 +4160,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4122,31 +4176,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4155,14 +4209,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4172,14 +4226,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4188,14 +4242,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,14 +4259,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4228,7 +4282,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,14 +4292,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>172</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4254,14 +4308,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,14 +4325,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>70</v>
+        <v>236</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>71</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>28</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4287,14 +4341,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,14 +4358,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4320,14 +4374,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,14 +4391,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>110</v>
+        <v>267</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4353,31 +4407,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4386,14 +4440,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,14 +4457,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4419,31 +4473,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>93</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4452,31 +4506,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4485,31 +4539,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>65</v>
+        <v>280</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4518,20 +4572,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>281</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4542,7 +4596,7 @@
         <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4558,24 +4612,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>49</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4584,31 +4638,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4617,31 +4671,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>289</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4650,31 +4704,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>259</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4683,31 +4737,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4716,31 +4770,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4749,31 +4803,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>92</v>
+        <v>303</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4782,31 +4836,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,31 +4869,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>199</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4848,31 +4902,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>98</v>
+        <v>309</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4881,31 +4935,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>238</v>
+        <v>34</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>34</v>
+        <v>311</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>28</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4914,31 +4968,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4947,31 +5001,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4980,31 +5034,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5013,66 +5067,297 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5632.3900000000003</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>312</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>313</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>314</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>321</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>280</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>80</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>296</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>322</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>34</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>80</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>19</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>323</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>258</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>80</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>41</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>324</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>34</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>80</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>303</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>325</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>18</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>80</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>55</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>327</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>40</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>80</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>294</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>328</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>329</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>80</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>37</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6248.7399999999998</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>330</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>331</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>332</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5606,10 +5891,45 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -86,6 +86,21 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>ANKLE SUPPORT</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -236,711 +251,756 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CIPAZOLE FORT 1 GM 2 TAB.</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>128.7000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>COBAL 500MCG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>CURISAFE 500MG 8 CAPS</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>175.6800</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>-53.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FROST TOPICAL SPRAY 100 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>237.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>HIDRASEC 100 MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>-24.0000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>151.00</t>
+  </si>
+  <si>
+    <t>151.0000</t>
+  </si>
+  <si>
+    <t>NEBULA SUN CREAM</t>
+  </si>
+  <si>
+    <t>319.00</t>
+  </si>
+  <si>
+    <t>319.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>PRIMO PLUS TOPICAL LOTION 120 ML</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>REBO SACHET</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>65.75</t>
+  </si>
+  <si>
+    <t>65.7500</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>-35.6400</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>THIODIO COMB TAB</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>74.2500</t>
+  </si>
+  <si>
+    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>222.0000</t>
+  </si>
+  <si>
+    <t>TRITTICO 100MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>21.5000</t>
+  </si>
+  <si>
+    <t>TRYPSALIN 20 TABS</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>ZITHROKAN 500MG 3 CAP</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>جنتيانا نقط</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>ديتول وسط</t>
+  </si>
+  <si>
+    <t>ريكسونه رجالى</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
     <t>26:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CIPAZOLE FORT 1 GM 2 TAB.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>128.7000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>COBAL 500MCG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>CURISAFE 500MG 8 CAPS</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>159.8400</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>-53.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FROST TOPICAL SPRAY 100 ML</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>237.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GOURYST 0.5 MG 100 TABS.</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>HIDRASEC 100 MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>IROSPECT 20 PIECES</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>-24.0000</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>LAMICTAL 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>143.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LIVABION 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
-  </si>
-  <si>
-    <t>0:19</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>26.4000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
-  </si>
-  <si>
-    <t>151.00</t>
-  </si>
-  <si>
-    <t>151.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>PANTAZOL 40MG VIAL I.V.</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 20MG 14 E.C. TAB.</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PRIANIL C.R. 400MG 30 CONTROLLED REL. TAB.</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>PRIDOCAINE CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>PRIMO PLUS TOPICAL LOTION 120 ML</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>RUMAXIMAP 120MG 10 F.C. TAB</t>
-  </si>
-  <si>
-    <t>65.75</t>
-  </si>
-  <si>
-    <t>65.7500</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SPASCOLON 100MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>-35.6400</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>THIODIO COMB TAB</t>
-  </si>
-  <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>74.2500</t>
-  </si>
-  <si>
-    <t>TIRATAM 500MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>222.00</t>
-  </si>
-  <si>
-    <t>222.0000</t>
-  </si>
-  <si>
-    <t>TRITTICO 100MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>21.5000</t>
-  </si>
-  <si>
-    <t>TRYPSALIN 20 TABS</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>جنتيانا نقط</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>36:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>ديتول وسط</t>
-  </si>
-  <si>
-    <t>ريكسونه رجالى</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -989,19 +1049,19 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">معجون اسنان مسواك صغير </t>
   </si>
   <si>
+    <t>معجون اسنان مسواك كبير</t>
+  </si>
+  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 8:53 PM</t>
+    <t>Monday, 18 August, 2025 9:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1747,18 +1807,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1767,14 +1827,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1784,11 +1844,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1800,14 +1860,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1817,14 +1877,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1833,14 +1893,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1850,11 +1910,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1866,14 +1926,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1883,11 +1943,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1899,14 +1959,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1916,11 +1976,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1932,14 +1992,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1949,14 +2009,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1965,14 +2025,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1982,14 +2042,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1998,14 +2058,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2015,14 +2075,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2031,14 +2091,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2048,14 +2108,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2064,14 +2124,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2081,14 +2141,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2097,14 +2157,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2114,11 +2174,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -2130,14 +2190,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2147,14 +2207,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2163,14 +2223,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2180,14 +2240,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2196,14 +2256,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2213,14 +2273,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2229,20 +2289,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2253,7 +2313,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2275,7 +2335,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -2302,7 +2362,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2319,7 +2379,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2335,7 +2395,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2352,7 +2412,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2361,14 +2421,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2378,14 +2438,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2401,7 +2461,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2411,14 +2471,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2427,14 +2487,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2467,7 +2527,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2477,14 +2537,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2493,31 +2553,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2526,14 +2586,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2543,14 +2603,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2559,28 +2619,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2592,14 +2652,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2609,14 +2669,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2632,7 +2692,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2642,14 +2702,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2658,14 +2718,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2675,14 +2735,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2708,14 +2768,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2724,14 +2784,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2741,14 +2801,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2757,14 +2817,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2774,11 +2834,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2790,14 +2850,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2807,14 +2867,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2823,14 +2883,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2840,11 +2900,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2856,14 +2916,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2873,14 +2933,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>143</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2896,7 +2956,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2913,7 +2973,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2922,14 +2982,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2939,14 +2999,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2955,14 +3015,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2972,14 +3032,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2988,14 +3048,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3005,11 +3065,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3021,14 +3081,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3038,11 +3098,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3054,14 +3114,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3071,14 +3131,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3087,14 +3147,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3104,14 +3164,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3120,14 +3180,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3137,14 +3197,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3153,14 +3213,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3170,11 +3230,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3186,14 +3246,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3203,11 +3263,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3219,14 +3279,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3236,14 +3296,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3252,14 +3312,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3269,14 +3329,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3285,14 +3345,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3302,14 +3362,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3318,24 +3378,24 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3358,7 +3418,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3375,7 +3435,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3391,24 +3451,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3424,13 +3484,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3438,10 +3498,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3450,14 +3510,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3467,14 +3527,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3483,14 +3543,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3500,11 +3560,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3516,28 +3576,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3549,14 +3609,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3566,14 +3626,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>204</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3589,7 +3649,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3603,7 +3663,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3615,20 +3675,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>208</v>
+        <v>58</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3636,10 +3696,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>210</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3648,14 +3708,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3665,14 +3725,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3681,14 +3741,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,14 +3758,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3714,31 +3774,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3747,14 +3807,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3764,14 +3824,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3780,14 +3840,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3797,14 +3857,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3813,7 +3873,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3830,11 +3890,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3853,7 +3913,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3870,7 +3930,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3886,24 +3946,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3912,14 +3972,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,11 +3989,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3945,14 +4005,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3962,14 +4022,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3978,31 +4038,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4011,14 +4071,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,14 +4088,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4044,14 +4104,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4061,14 +4121,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4077,14 +4137,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4094,14 +4154,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4110,31 +4170,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4143,14 +4203,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4160,11 +4220,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4176,14 +4236,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4193,14 +4253,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4209,14 +4269,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4226,14 +4286,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>23</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4249,7 +4309,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4266,7 +4326,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4282,7 +4342,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4292,11 +4352,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4308,14 +4368,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4325,14 +4385,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>236</v>
+        <v>102</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4341,14 +4401,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4358,14 +4418,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4374,28 +4434,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>267</v>
+        <v>94</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4407,31 +4467,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>271</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4440,14 +4500,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4457,14 +4517,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4473,14 +4533,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4490,14 +4550,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4506,14 +4566,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4523,11 +4583,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4539,14 +4599,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>280</v>
+        <v>22</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4556,14 +4616,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4572,14 +4632,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4589,11 +4649,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4605,14 +4665,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4622,14 +4682,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4638,31 +4698,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4671,14 +4731,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,11 +4748,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4704,31 +4764,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>293</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4737,31 +4797,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4770,28 +4830,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>71</v>
+        <v>294</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4803,28 +4863,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4836,31 +4896,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4869,28 +4929,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>85</v>
+        <v>302</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>86</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4902,31 +4962,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>34</v>
+        <v>305</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>309</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4935,31 +4995,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>56</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>280</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4968,28 +5028,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5001,31 +5061,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>84</v>
+        <v>315</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>316</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5041,24 +5101,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>61</v>
+        <v>315</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>318</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>84</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5074,21 +5134,21 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5100,28 +5160,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5133,31 +5193,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>105</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5166,28 +5226,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5199,31 +5259,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5232,31 +5292,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>55</v>
+        <v>331</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>326</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>84</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5265,28 +5325,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5298,66 +5358,396 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>329</v>
+        <v>26</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6248.7399999999998</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>330</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>331</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>332</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>337</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>66</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>27</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>102</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>339</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>340</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>27</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>181</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>341</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>294</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>27</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>28</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>342</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>39</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>27</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>19</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>343</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>272</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>27</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>46</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>344</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>39</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>27</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>324</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>345</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>18</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>27</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>60</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>346</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>45</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>27</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>316</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>347</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>39</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>27</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>42</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>348</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>349</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>27</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>42</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7089.4099999999999</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>350</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>351</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>352</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5926,10 +6316,60 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -260,385 +260,382 @@
     <t>62.0000</t>
   </si>
   <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
+    <t>CIPAZOLE FORT 1 GM 2 TAB.</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>128.7000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>COBAL 500MCG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>CURISAFE 500MG 8 CAPS</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>175.6800</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>-53.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FROST TOPICAL SPRAY 100 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>237.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>HIDRASEC 100 MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>-24.0000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
   </si>
   <si>
     <t>12.0000</t>
-  </si>
-  <si>
-    <t>CIPAZOLE FORT 1 GM 2 TAB.</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>128.7000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>COBAL 500MCG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>CURISAFE 500MG 8 CAPS</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>175.6800</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>-53.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FROST TOPICAL SPRAY 100 ML</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>237.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GOURYST 0.5 MG 100 TABS.</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>HIDRASEC 100 MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>IROSPECT 20 PIECES</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>-24.0000</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>LAMICTAL 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>143.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>300.00</t>
   </si>
   <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
@@ -2329,21 +2326,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2355,14 +2352,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2372,14 +2369,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2388,14 +2385,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2405,14 +2402,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2428,7 +2425,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2445,7 +2442,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2454,14 +2451,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2478,7 +2475,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2494,7 +2491,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2504,11 +2501,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2520,14 +2517,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2537,11 +2534,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2553,14 +2550,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2570,14 +2567,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2593,24 +2590,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2619,7 +2616,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2632,18 +2629,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2652,14 +2649,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2669,14 +2666,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2685,14 +2682,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2702,11 +2699,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2718,14 +2715,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2742,7 +2739,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2758,7 +2755,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2768,14 +2765,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2784,14 +2781,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2801,14 +2798,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2817,14 +2814,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2834,14 +2831,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2850,14 +2847,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2867,14 +2864,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2883,14 +2880,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2907,7 +2904,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2916,14 +2913,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2940,7 +2937,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2949,14 +2946,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2966,14 +2963,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2982,14 +2979,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2999,14 +2996,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>148</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3022,7 +3019,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3032,14 +3029,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3048,14 +3045,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3065,14 +3062,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3081,14 +3078,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3098,14 +3095,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3114,14 +3111,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3131,14 +3128,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3147,14 +3144,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3164,14 +3161,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3180,7 +3177,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3197,14 +3194,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3213,14 +3210,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3230,11 +3227,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3246,14 +3243,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3263,11 +3260,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3279,14 +3276,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3296,11 +3293,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3312,14 +3309,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3329,14 +3326,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3345,7 +3342,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3362,11 +3359,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3378,14 +3375,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3395,14 +3392,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3411,31 +3408,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3444,28 +3441,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3477,14 +3474,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3494,14 +3491,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3510,7 +3507,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3527,14 +3524,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3543,31 +3540,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3576,31 +3573,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3616,7 +3613,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3626,14 +3623,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>204</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3642,14 +3639,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3659,14 +3656,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3675,7 +3672,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3692,11 +3689,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3708,7 +3705,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3725,11 +3722,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3741,14 +3738,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3758,7 +3755,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3774,14 +3771,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3791,11 +3788,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>35</v>
@@ -3807,14 +3804,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3824,11 +3821,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3840,7 +3837,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3857,11 +3854,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>35</v>
@@ -3873,7 +3870,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3906,7 +3903,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3923,11 +3920,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3939,7 +3936,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3956,11 +3953,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3972,7 +3969,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3989,11 +3986,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4005,7 +4002,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4022,11 +4019,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4038,7 +4035,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4055,11 +4052,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4071,7 +4068,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4092,10 +4089,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4104,7 +4101,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4137,7 +4134,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4154,14 +4151,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4170,7 +4167,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4187,11 +4184,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4203,7 +4200,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4220,7 +4217,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4236,7 +4233,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4253,11 +4250,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4269,7 +4266,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4290,7 +4287,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4302,7 +4299,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4319,11 +4316,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4335,14 +4332,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4352,11 +4349,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4368,7 +4365,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4385,11 +4382,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4401,7 +4398,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4418,11 +4415,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>35</v>
@@ -4434,7 +4431,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4451,11 +4448,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4467,14 +4464,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4500,14 +4497,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4517,11 +4514,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>35</v>
@@ -4533,7 +4530,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4550,11 +4547,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4566,14 +4563,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4583,11 +4580,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4599,7 +4596,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4616,14 +4613,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4632,7 +4629,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4649,11 +4646,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4665,7 +4662,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4682,11 +4679,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4698,7 +4695,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4715,11 +4712,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4731,7 +4728,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4748,11 +4745,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4764,7 +4761,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4785,7 +4782,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4797,7 +4794,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4814,11 +4811,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4830,14 +4827,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4851,7 +4848,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4863,7 +4860,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4880,11 +4877,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4896,7 +4893,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4913,11 +4910,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4929,14 +4926,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4946,11 +4943,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4962,14 +4959,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4979,11 +4976,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4995,7 +4992,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -5012,11 +5009,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5028,7 +5025,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5045,11 +5042,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5061,14 +5058,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5078,11 +5075,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>26</v>
@@ -5094,14 +5091,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5115,10 +5112,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5127,7 +5124,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5144,11 +5141,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5160,14 +5157,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5177,7 +5174,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5193,7 +5190,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5226,7 +5223,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5243,11 +5240,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5259,7 +5256,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5276,14 +5273,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5292,7 +5289,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5309,14 +5306,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5325,7 +5322,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5342,11 +5339,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5358,7 +5355,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5375,11 +5372,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5391,7 +5388,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5408,11 +5405,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>26</v>
@@ -5424,14 +5421,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5441,11 +5438,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5457,14 +5454,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5490,7 +5487,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5514,7 +5511,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5523,14 +5520,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5556,7 +5553,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5573,7 +5570,7 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5589,7 +5586,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5610,7 +5607,7 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>26</v>
@@ -5622,7 +5619,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5639,11 +5636,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5655,7 +5652,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5688,14 +5685,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5717,13 +5714,13 @@
     </row>
     <row r="129" ht="25.5" customHeight="1">
       <c r="P129" s="13">
-        <v>7089.4099999999999</v>
+        <v>7099.4099999999999</v>
       </c>
       <c r="Q129" s="13"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
       <c t="s" r="A130" s="14">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -5731,13 +5728,13 @@
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c t="s" r="G130" s="15">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="16"/>
       <c t="s" r="K130" s="17">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L130" s="17"/>
       <c r="M130" s="17"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -444,6 +444,15 @@
   </si>
   <si>
     <t>78.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
   </si>
   <si>
     <t>EXAMIDE 20 MG 30TABS</t>
@@ -3003,7 +3012,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>148</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3012,14 +3021,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3029,14 +3038,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3052,7 +3061,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3085,7 +3094,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3102,7 +3111,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3118,7 +3127,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3135,7 +3144,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3151,7 +3160,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3168,7 +3177,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3201,7 +3210,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3217,7 +3226,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3250,7 +3259,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3283,7 +3292,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3316,7 +3325,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3333,7 +3342,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3382,7 +3391,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3399,7 +3408,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3415,24 +3424,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3441,24 +3450,24 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3481,7 +3490,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3491,14 +3500,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3507,7 +3516,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3524,14 +3533,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3547,13 +3556,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3561,10 +3570,10 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3573,31 +3582,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3606,14 +3615,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3623,14 +3632,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q65" s="12">
         <v>203</v>
-      </c>
-      <c t="s" r="Q65" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3646,7 +3655,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3656,14 +3665,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3672,24 +3681,24 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3712,13 +3721,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3729,7 +3738,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3745,7 +3754,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3759,7 +3768,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3771,20 +3780,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3792,10 +3801,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3804,31 +3813,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3858,10 +3867,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3870,14 +3879,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3887,14 +3896,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3920,14 +3929,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3949,7 +3958,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3976,21 +3985,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4002,14 +4011,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4042,7 +4051,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4075,7 +4084,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4101,14 +4110,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4118,14 +4127,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>61</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4134,14 +4143,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4174,13 +4183,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4191,7 +4200,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4207,13 +4216,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4221,7 +4230,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4233,7 +4242,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4250,14 +4259,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4266,14 +4275,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4283,11 +4292,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4299,14 +4308,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4316,7 +4325,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4339,7 +4348,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4356,7 +4365,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4372,7 +4381,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4382,11 +4391,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>98</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>99</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4415,14 +4424,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4431,31 +4440,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4464,28 +4473,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4497,14 +4506,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4514,14 +4523,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>60</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4537,7 +4546,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4554,7 +4563,7 @@
         <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4570,7 +4579,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4580,11 +4589,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4596,14 +4605,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4613,14 +4622,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4629,14 +4638,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4646,14 +4655,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4669,7 +4678,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4702,13 +4711,13 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4719,7 +4728,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4735,13 +4744,13 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4752,7 +4761,7 @@
         <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4768,7 +4777,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4778,14 +4787,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4811,14 +4820,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4827,14 +4836,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4844,7 +4853,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4867,7 +4876,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4877,7 +4886,7 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>81</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
@@ -4900,7 +4909,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4910,14 +4919,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>122</v>
+        <v>299</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4926,14 +4935,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>58</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4943,14 +4952,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4966,7 +4975,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4976,14 +4985,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4992,14 +5001,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5016,7 +5025,7 @@
         <v>309</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5032,7 +5041,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5065,24 +5074,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>314</v>
+        <v>39</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>99</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5098,7 +5107,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5108,14 +5117,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>28</v>
+        <v>318</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>317</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>107</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5124,14 +5133,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5141,14 +5150,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>320</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5164,7 +5173,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5174,11 +5183,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5197,7 +5206,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5207,11 +5216,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>60</v>
+        <v>326</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5223,14 +5232,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5240,11 +5249,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5256,14 +5265,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5273,14 +5282,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>327</v>
+        <v>84</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>328</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5310,10 +5319,10 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>293</v>
+        <v>331</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5322,14 +5331,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5339,14 +5348,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>333</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5372,11 +5381,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5388,14 +5397,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5405,14 +5414,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>98</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5421,14 +5430,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>339</v>
+        <v>66</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5438,14 +5447,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>178</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5454,14 +5463,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5471,11 +5480,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5487,14 +5496,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5504,14 +5513,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5520,14 +5529,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5537,14 +5546,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5553,14 +5562,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5570,11 +5579,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>323</v>
+        <v>46</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5586,14 +5595,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5603,14 +5612,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>60</v>
+        <v>326</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5619,14 +5628,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5636,14 +5645,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5652,14 +5661,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5669,11 +5678,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>42</v>
+        <v>318</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5685,14 +5694,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>348</v>
+        <v>39</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5713,38 +5722,71 @@
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7099.4099999999999</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>349</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>350</v>
       </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
         <v>351</v>
       </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>27</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>42</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="P130" s="13">
+        <v>7137.0299999999997</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
+        <v>352</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
+        <v>353</v>
+      </c>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
+        <v>354</v>
+      </c>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6363,10 +6405,15 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -1067,7 +1067,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:08 PM</t>
+    <t>Monday, 18 August, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -224,6 +224,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -302,396 +308,393 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>4:1</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>CURISAFE 500MG 8 CAPS</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>175.6800</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>-53.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FROST TOPICAL SPRAY 100 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>237.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>HIDRASEC 100 MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>-24.0000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>264.00</t>
+  </si>
+  <si>
+    <t>26.4000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
+    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
     <t>50.0000</t>
   </si>
   <si>
-    <t>CONGESTAL SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>CURISAFE 500MG 8 CAPS</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>175.6800</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>-53.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FROST TOPICAL SPRAY 100 ML</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>237.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GOURYST 0.5 MG 100 TABS.</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>HIDRASEC 100 MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>IROSPECT 20 PIECES</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>-24.0000</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>LAMICTAL 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>143.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LIVABION 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
-  </si>
-  <si>
-    <t>0:19</t>
-  </si>
-  <si>
-    <t>264.00</t>
-  </si>
-  <si>
-    <t>26.4000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>49.5000</t>
-  </si>
-  <si>
-    <t>MOTILIUM 10MG 40 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -1019,9 +1022,6 @@
     <t>80.00</t>
   </si>
   <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>شفاط ثدي الجو</t>
   </si>
   <si>
@@ -1067,7 +1067,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:12 PM</t>
+    <t>Monday, 18 August, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2236,7 +2236,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2246,14 +2246,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2262,14 +2262,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2279,14 +2279,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2295,14 +2295,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2312,14 +2312,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2328,14 +2328,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2345,14 +2345,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2361,14 +2361,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2378,14 +2378,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2394,14 +2394,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2411,14 +2411,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2427,14 +2427,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2444,14 +2444,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2460,14 +2460,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2477,14 +2477,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2493,14 +2493,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2510,14 +2510,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2526,14 +2526,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2543,11 +2543,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2559,14 +2559,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2576,14 +2576,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2592,31 +2592,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2638,18 +2638,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2665,7 +2665,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2675,14 +2675,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2691,14 +2691,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2708,11 +2708,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2724,14 +2724,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2741,14 +2741,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2757,14 +2757,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2774,14 +2774,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2790,14 +2790,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2807,14 +2807,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2823,14 +2823,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2840,14 +2840,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2856,14 +2856,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2873,14 +2873,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2889,14 +2889,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2906,14 +2906,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2922,14 +2922,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2939,14 +2939,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2955,14 +2955,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2972,14 +2972,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2988,14 +2988,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3005,14 +3005,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3038,14 +3038,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>151</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3054,14 +3054,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3071,14 +3071,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3087,14 +3087,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3104,14 +3104,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3120,14 +3120,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3137,14 +3137,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3153,14 +3153,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3170,14 +3170,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3186,14 +3186,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3203,14 +3203,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3236,14 +3236,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3252,14 +3252,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3269,11 +3269,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3285,14 +3285,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3302,11 +3302,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3318,14 +3318,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3335,11 +3335,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3351,14 +3351,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3368,14 +3368,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3401,11 +3401,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3417,14 +3417,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3434,14 +3434,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3450,31 +3450,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3483,28 +3483,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3516,14 +3516,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3533,14 +3533,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3566,14 +3566,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3582,31 +3582,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3615,31 +3615,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>203</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3648,14 +3648,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3665,14 +3665,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3681,14 +3681,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3698,14 +3698,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3714,28 +3714,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3747,31 +3747,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3780,14 +3780,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3797,11 +3797,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3813,31 +3813,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3846,31 +3846,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3879,14 +3879,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3896,14 +3896,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3912,14 +3912,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3929,14 +3929,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3952,7 +3952,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3962,14 +3962,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3991,15 +3991,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -4011,28 +4011,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -4044,14 +4044,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4061,14 +4061,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4094,11 +4094,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4110,14 +4110,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4127,14 +4127,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4143,14 +4143,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4160,14 +4160,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4183,7 +4183,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4193,14 +4193,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4209,31 +4209,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4242,28 +4242,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>82</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4292,14 +4292,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4315,7 +4315,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4325,11 +4325,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4341,14 +4341,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4358,11 +4358,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4374,14 +4374,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4391,14 +4391,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4407,14 +4407,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4424,11 +4424,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>98</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4447,7 +4447,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4457,14 +4457,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4473,31 +4473,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4513,21 +4513,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4546,7 +4546,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4556,14 +4556,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4572,14 +4572,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4589,14 +4589,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4605,14 +4605,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4638,14 +4638,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4655,14 +4655,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4671,14 +4671,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4688,14 +4688,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4704,14 +4704,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4721,11 +4721,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4737,31 +4737,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4770,31 +4770,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4803,14 +4803,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4820,14 +4820,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4836,14 +4836,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4853,14 +4853,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4869,14 +4869,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4886,11 +4886,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4902,14 +4902,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4919,11 +4919,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4935,14 +4935,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4952,14 +4952,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4968,14 +4968,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>296</v>
+        <v>58</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4985,14 +4985,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5001,14 +5001,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5018,14 +5018,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5034,14 +5034,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5051,14 +5051,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5067,14 +5067,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5084,11 +5084,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5100,31 +5100,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>317</v>
+        <v>39</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>99</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5133,14 +5133,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5150,14 +5150,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>28</v>
+        <v>319</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>320</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>107</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5166,14 +5166,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5183,14 +5183,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>322</v>
+        <v>28</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5199,14 +5199,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5216,11 +5216,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>15</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5232,14 +5232,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5249,11 +5249,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>60</v>
+        <v>327</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5272,7 +5272,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5282,11 +5282,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5305,7 +5305,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5315,14 +5315,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>330</v>
+        <v>86</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>331</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5348,14 +5348,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>296</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5364,14 +5364,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5381,14 +5381,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>336</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>297</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5414,11 +5414,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>338</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5430,14 +5430,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5447,14 +5447,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>98</v>
+        <v>319</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5463,14 +5463,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>342</v>
+        <v>66</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5480,14 +5480,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>181</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5496,14 +5496,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5513,11 +5513,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5529,14 +5529,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5546,14 +5546,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5562,14 +5562,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5579,14 +5579,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5595,14 +5595,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5612,11 +5612,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>326</v>
+        <v>46</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5628,14 +5628,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5645,14 +5645,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>60</v>
+        <v>327</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>264</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5661,14 +5661,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5678,14 +5678,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>318</v>
+        <v>60</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5694,14 +5694,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5711,11 +5711,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>43</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5727,14 +5727,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>351</v>
+        <v>39</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5755,38 +5755,71 @@
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>7137.0299999999997</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>350</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>351</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>27</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>42</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7242.0299999999997</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
         <v>352</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
         <v>353</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
         <v>354</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6410,10 +6443,15 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -1067,7 +1067,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:14 PM</t>
+    <t>Monday, 18 August, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -1067,7 +1067,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:15 PM</t>
+    <t>Monday, 18 August, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>1:1</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BRONCHOPHANE 125ML SYRUP.</t>
   </si>
   <si>
@@ -308,117 +317,129 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>50.00</t>
   </si>
   <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>CURISAFE 500MG 8 CAPS</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>175.6800</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>EAZ-X GEL 50 ML</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
     <t>75.0000</t>
   </si>
   <si>
-    <t>CONGESTAL SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>CURISAFE 500MG 8 CAPS</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>175.6800</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
     <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
   </si>
   <si>
@@ -587,9 +608,6 @@
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>IROSPECT 20 PIECES</t>
   </si>
   <si>
@@ -677,9 +695,6 @@
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -1031,9 +1046,6 @@
     <t>صوفي طويل جدا</t>
   </si>
   <si>
-    <t>100.0000</t>
-  </si>
-  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -1067,7 +1079,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:16 PM</t>
+    <t>Monday, 18 August, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2104,7 +2116,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2121,7 +2133,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2137,7 +2149,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2154,7 +2166,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2170,7 +2182,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2180,14 +2192,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2196,14 +2208,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2213,11 +2225,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2229,14 +2241,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2250,10 +2262,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2262,14 +2274,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2279,14 +2291,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2295,14 +2307,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2312,14 +2324,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2328,14 +2340,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2345,14 +2357,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2361,14 +2373,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2385,7 +2397,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2401,7 +2413,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2418,7 +2430,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2434,7 +2446,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2451,7 +2463,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2460,14 +2472,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2477,14 +2489,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>97</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2500,7 +2512,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2517,7 +2529,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2533,7 +2545,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2543,14 +2555,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2559,14 +2571,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2576,11 +2588,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2592,14 +2604,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2609,14 +2621,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2632,24 +2644,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2658,7 +2670,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2671,18 +2683,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2691,14 +2703,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2708,14 +2720,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2724,14 +2736,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2741,11 +2753,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2757,14 +2769,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2781,7 +2793,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2797,7 +2809,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2807,14 +2819,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2823,14 +2835,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2840,14 +2852,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2856,14 +2868,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2873,14 +2885,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2889,14 +2901,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2906,14 +2918,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2922,14 +2934,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2946,7 +2958,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2955,14 +2967,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2972,14 +2984,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2988,14 +3000,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3005,14 +3017,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3021,14 +3033,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3038,11 +3050,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3054,14 +3066,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3071,14 +3083,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3094,7 +3106,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3104,7 +3116,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -3127,7 +3139,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3144,7 +3156,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3153,14 +3165,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3170,11 +3182,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3186,7 +3198,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3203,11 +3215,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3219,14 +3231,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3236,14 +3248,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3252,14 +3264,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3269,14 +3281,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3285,14 +3297,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3302,14 +3314,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3335,11 +3347,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3351,14 +3363,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3368,11 +3380,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3401,14 +3413,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3417,14 +3429,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3434,14 +3446,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3450,14 +3462,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3467,14 +3479,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3483,7 +3495,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3496,15 +3508,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3516,14 +3528,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3533,14 +3545,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3549,7 +3561,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3562,18 +3574,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3582,14 +3594,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3599,11 +3611,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3615,28 +3627,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3648,14 +3660,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3665,14 +3677,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>203</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3688,13 +3700,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3702,10 +3714,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3714,14 +3726,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3731,14 +3743,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3747,31 +3759,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3780,14 +3792,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3820,13 +3832,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3834,10 +3846,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3846,20 +3858,20 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3870,7 +3882,7 @@
         <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3886,7 +3898,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3896,14 +3908,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3912,28 +3924,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>58</v>
+        <v>224</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>35</v>
@@ -3945,14 +3957,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3962,11 +3974,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3978,14 +3990,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3995,14 +4007,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4011,31 +4023,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4044,14 +4056,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4061,7 +4073,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4084,13 +4096,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4101,7 +4113,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4117,7 +4129,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4127,14 +4139,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4143,14 +4155,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4160,14 +4172,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>140</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4183,7 +4195,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4193,14 +4205,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4209,14 +4221,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4226,14 +4238,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>94</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4242,28 +4254,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>63</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4275,14 +4287,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4292,14 +4304,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>84</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4315,24 +4327,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4341,14 +4353,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4358,14 +4370,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>23</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4374,14 +4386,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4391,11 +4403,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4414,7 +4426,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4424,14 +4436,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4440,14 +4452,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4457,14 +4469,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4473,14 +4485,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4490,14 +4502,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4506,7 +4518,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4519,15 +4531,15 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4539,14 +4551,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4556,14 +4568,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>61</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4572,31 +4584,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>95</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4605,14 +4617,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4622,11 +4634,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>63</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4638,14 +4650,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>275</v>
+        <v>144</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4655,14 +4667,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4671,14 +4683,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4688,14 +4700,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>152</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4704,14 +4716,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>66</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4744,7 +4756,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4754,14 +4766,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4770,31 +4782,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4803,14 +4815,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4820,11 +4832,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4836,24 +4848,24 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4876,7 +4888,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4886,11 +4898,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4902,14 +4914,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>297</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4919,14 +4931,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4942,7 +4954,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4952,11 +4964,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4968,14 +4980,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>58</v>
+        <v>302</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4985,14 +4997,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5008,7 +5020,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5041,7 +5053,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5051,11 +5063,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5067,14 +5079,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5084,11 +5096,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5100,14 +5112,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>39</v>
+        <v>313</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5117,14 +5129,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5133,31 +5145,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>227</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5166,31 +5178,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>28</v>
+        <v>320</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>321</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5206,7 +5218,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5216,14 +5228,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5239,7 +5251,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5249,14 +5261,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>327</v>
+        <v>28</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>15</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5265,14 +5277,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5282,11 +5294,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>60</v>
+        <v>328</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5298,14 +5310,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>45</v>
+        <v>331</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5315,11 +5327,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>86</v>
+        <v>332</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5331,14 +5343,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5348,14 +5360,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>331</v>
+        <v>63</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>332</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5364,14 +5376,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5381,14 +5393,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>297</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5404,7 +5416,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5418,10 +5430,10 @@
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>337</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5430,14 +5442,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5447,14 +5459,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>338</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>302</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5463,14 +5475,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5480,14 +5492,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>99</v>
+        <v>341</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>340</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5496,14 +5508,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>342</v>
+        <v>26</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5513,11 +5525,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>182</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5529,14 +5541,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>297</v>
+        <v>69</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5546,14 +5558,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5562,14 +5574,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5579,14 +5591,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>43</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5595,14 +5607,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5612,11 +5624,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5628,7 +5640,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5645,14 +5657,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5661,14 +5673,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>18</v>
+        <v>280</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5678,14 +5690,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>265</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5694,14 +5706,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5711,11 +5723,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5727,14 +5739,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5744,14 +5756,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5760,14 +5772,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5777,49 +5789,115 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>42</v>
+        <v>324</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>343</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>353</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>39</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>27</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>42</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
         <v>43</v>
       </c>
-      <c t="s" r="Q130" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7242.0299999999997</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>352</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>353</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>354</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>355</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>27</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>42</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7368.7600000000002</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>356</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>357</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>358</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6448,10 +6526,20 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -422,6 +422,9 @@
     <t>175.6800</t>
   </si>
   <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
     <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
   </si>
   <si>
@@ -884,6 +887,15 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">SUPRAX 200MG  8 CAP</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
     <t>THIODIO COMB TAB</t>
   </si>
   <si>
@@ -1079,7 +1091,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:17 PM</t>
+    <t>Monday, 18 August, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2941,7 +2953,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2951,11 +2963,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2967,7 +2979,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2984,14 +2996,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3000,14 +3012,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3017,14 +3029,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3033,14 +3045,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3050,14 +3062,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3066,14 +3078,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3083,14 +3095,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3099,14 +3111,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3116,14 +3128,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3132,7 +3144,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3149,14 +3161,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3182,14 +3194,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3198,14 +3210,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3215,14 +3227,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3231,14 +3243,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3248,14 +3260,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3264,14 +3276,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3281,14 +3293,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3297,14 +3309,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3314,14 +3326,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3330,7 +3342,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3347,14 +3359,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3363,14 +3375,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3380,11 +3392,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3396,14 +3408,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3413,11 +3425,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3429,14 +3441,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3446,11 +3458,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3462,14 +3474,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3479,14 +3491,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3495,7 +3507,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3512,11 +3524,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3528,14 +3540,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3545,14 +3557,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3561,31 +3573,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>95</v>
+        <v>195</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3594,28 +3606,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3634,7 +3646,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3644,14 +3656,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3660,7 +3672,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3677,14 +3689,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3693,31 +3705,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3726,31 +3738,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3759,14 +3771,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3776,14 +3788,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3792,14 +3804,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3809,14 +3821,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3825,28 +3837,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>106</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3858,31 +3870,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3891,14 +3903,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3908,11 +3920,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>57</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3924,31 +3936,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3957,31 +3969,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3990,14 +4002,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4007,14 +4019,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4040,14 +4052,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4063,7 +4075,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4073,14 +4085,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4089,7 +4101,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4102,15 +4114,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -4122,28 +4134,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4155,14 +4167,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4172,14 +4184,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4188,14 +4200,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4205,11 +4217,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4238,14 +4250,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4254,14 +4266,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4271,14 +4283,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>64</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4294,7 +4306,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>63</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4320,31 +4332,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4353,28 +4365,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4386,7 +4398,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4403,14 +4415,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4426,7 +4438,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4436,11 +4448,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4452,14 +4464,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4469,11 +4481,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4485,14 +4497,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4502,14 +4514,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4518,14 +4530,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4535,11 +4547,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4558,7 +4570,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4568,14 +4580,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4584,31 +4596,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>95</v>
+        <v>247</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4624,21 +4636,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4657,7 +4669,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4667,14 +4679,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>274</v>
+        <v>63</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4683,14 +4695,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4700,14 +4712,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4716,14 +4728,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>39</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4733,11 +4745,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4749,14 +4761,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4766,14 +4778,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4782,14 +4794,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4799,14 +4811,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4815,14 +4827,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4832,11 +4844,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4848,31 +4860,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4881,14 +4893,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4898,11 +4910,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4914,28 +4926,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>82</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4947,14 +4959,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4964,7 +4976,7 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
@@ -4987,7 +4999,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>302</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4997,14 +5009,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5013,14 +5025,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5030,11 +5042,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5046,14 +5058,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>58</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5063,14 +5075,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5079,14 +5091,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>302</v>
+        <v>39</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5096,11 +5108,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5112,14 +5124,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>313</v>
+        <v>58</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5129,11 +5141,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5145,14 +5157,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5162,11 +5174,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5178,14 +5190,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5195,14 +5207,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5211,31 +5223,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5244,31 +5256,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>323</v>
+        <v>39</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5277,14 +5289,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5298,10 +5310,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>329</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5310,14 +5322,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5327,14 +5339,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>332</v>
+        <v>28</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>15</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5343,14 +5355,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5360,11 +5372,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>63</v>
+        <v>332</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5383,7 +5395,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>45</v>
+        <v>335</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5393,11 +5405,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5409,14 +5421,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5426,14 +5438,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>336</v>
+        <v>63</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>337</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5449,7 +5461,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5459,14 +5471,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>339</v>
+        <v>89</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>302</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5475,14 +5487,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5492,14 +5504,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5515,7 +5527,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5525,14 +5537,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>343</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>306</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5548,7 +5560,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5558,14 +5570,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5574,14 +5586,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>346</v>
+        <v>26</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5591,11 +5603,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>188</v>
+        <v>328</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>189</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5607,14 +5619,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>302</v>
+        <v>69</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5624,14 +5636,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5640,14 +5652,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>39</v>
+        <v>350</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5657,14 +5669,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5673,14 +5685,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5690,11 +5702,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5706,7 +5718,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5723,14 +5735,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5739,14 +5751,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5756,14 +5768,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>270</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5772,14 +5784,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5789,11 +5801,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>343</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5805,14 +5817,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5822,14 +5834,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5838,14 +5850,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>355</v>
+        <v>45</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5855,49 +5867,115 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
+        <v>347</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>357</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>39</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>27</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>42</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
         <v>43</v>
       </c>
-      <c t="s" r="Q132" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7368.7600000000002</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>356</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>357</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c t="s" r="Q133" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
         <v>358</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>359</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>27</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>42</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="P135" s="13">
+        <v>7530.7600000000002</v>
+      </c>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" ht="16.5" customHeight="1">
+      <c t="s" r="A136" s="14">
+        <v>360</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c t="s" r="G136" s="15">
+        <v>361</v>
+      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c t="s" r="K136" s="17">
+        <v>362</v>
+      </c>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="652">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6536,10 +6614,20 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="A136:F136"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="K136:Q136"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -182,507 +182,507 @@
     <t>64.00</t>
   </si>
   <si>
+    <t>128.0000</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>BRONCHOPHANE 125ML SYRUP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 200MG 30 TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CANDALKAN 4MG 14 TABLETS</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>0:9</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>172.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CIPAZOLE FORT 1 GM 2 TAB.</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>128.7000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>COBAL 500MCG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>10.8900</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>COXORIZET CAPS</t>
+  </si>
+  <si>
+    <t>249.00</t>
+  </si>
+  <si>
+    <t>82.1700</t>
+  </si>
+  <si>
+    <t>CURISAFE 500MG 8 CAPS</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>175.6800</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>DOLPHIN 50MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>386.00</t>
+  </si>
+  <si>
+    <t>127.3800</t>
+  </si>
+  <si>
+    <t>EAZ-X GEL 50 ML</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>104.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>-53.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FROST TOPICAL SPRAY 100 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>237.0000</t>
+  </si>
+  <si>
+    <t>GANATON 50 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>HIDRASEC 100 MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>HISTAZINE-1 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>IROSPECT 20 PIECES</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>JOMOGESTIVE TAB</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>-24.0000</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>LAMICTAL 50MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>143.00</t>
+  </si>
+  <si>
+    <t>143.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
     <t>96.0000</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>BRONCHOPHANE 125ML SYRUP.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 200MG 30 TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CANDALKAN 4MG 14 TABLETS</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CARBAMIDE 10% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>CATAFAST 50 MG 9 SACHET</t>
-  </si>
-  <si>
-    <t>0:9</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>7.9200</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>172.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CIPAZOLE FORT 1 GM 2 TAB.</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>128.7000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>COBAL 500MCG 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>10.8900</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>24:0</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>CORASORE 150MG 20 TAB</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>COXORIZET CAPS</t>
-  </si>
-  <si>
-    <t>249.00</t>
-  </si>
-  <si>
-    <t>82.1700</t>
-  </si>
-  <si>
-    <t>CURISAFE 500MG 8 CAPS</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>175.6800</t>
-  </si>
-  <si>
-    <t>DOLPHIN 50MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>DUPHASTON 10 MG 60 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>386.00</t>
-  </si>
-  <si>
-    <t>127.3800</t>
-  </si>
-  <si>
-    <t>EAZ-X GEL 50 ML</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>ENTEROGERMINA 2 BILLION/5ML ORAL SUSP. 10 MINI BOTTLES</t>
-  </si>
-  <si>
-    <t>1:7</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>EPICOPRED 20 MG 20 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>104.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX TRIO 5/20/12.5MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>37.6200</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>-53.0000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FLOXAMO 500/500 MG 16 F.C.TABS</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FROST TOPICAL SPRAY 100 ML</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>140.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>237.0000</t>
-  </si>
-  <si>
-    <t>GANATON 50 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GOURYST 0.5 MG 100 TABS.</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>HIDRASEC 100 MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>HISTAZINE-1 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>IROSPECT 20 PIECES</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>JOMOGESTIVE TAB</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>-24.0000</t>
-  </si>
-  <si>
-    <t>0:-2</t>
-  </si>
-  <si>
-    <t>LAMICTAL 50MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>143.00</t>
-  </si>
-  <si>
-    <t>143.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>LIVABION 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">LUNGOCORT 0.5/2ML  AMP</t>
   </si>
   <si>
@@ -962,15 +962,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
   </si>
   <si>
@@ -1043,6 +1037,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>شامبو كلير للرجال 180مل</t>
   </si>
   <si>
@@ -1091,7 +1088,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:20 PM</t>
+    <t>Monday, 18 August, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2095,7 +2092,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2112,7 +2109,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2121,7 +2118,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2138,11 +2135,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2154,7 +2151,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2171,11 +2168,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2187,7 +2184,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2204,11 +2201,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2220,14 +2217,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2237,11 +2234,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2253,7 +2250,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2274,7 +2271,7 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2286,7 +2283,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -2307,7 +2304,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>26</v>
@@ -2319,14 +2316,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2336,11 +2333,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2352,14 +2349,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2369,11 +2366,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>45</v>
@@ -2385,14 +2382,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2402,11 +2399,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -2418,7 +2415,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2435,11 +2432,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2451,7 +2448,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2468,11 +2465,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2484,7 +2481,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2501,14 +2498,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2517,14 +2514,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2788,7 +2785,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2887,7 +2884,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2901,10 +2898,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2913,14 +2910,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2930,14 +2927,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2946,7 +2943,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2963,11 +2960,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2979,7 +2976,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2996,11 +2993,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -3012,7 +3009,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3029,11 +3026,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -3045,14 +3042,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3062,14 +3059,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>148</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3078,7 +3075,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3095,11 +3092,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3111,7 +3108,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3132,7 +3129,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3144,14 +3141,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3161,11 +3158,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3177,14 +3174,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3194,14 +3191,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>159</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>160</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3210,14 +3207,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3227,11 +3224,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3243,7 +3240,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3260,11 +3257,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3276,7 +3273,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3293,11 +3290,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3309,7 +3306,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3326,11 +3323,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3342,7 +3339,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3359,11 +3356,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>112</v>
@@ -3375,7 +3372,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3392,11 +3389,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3408,7 +3405,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3425,11 +3422,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3441,14 +3438,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3458,11 +3455,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3474,14 +3471,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3491,11 +3488,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3507,7 +3504,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3524,11 +3521,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3540,7 +3537,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3557,11 +3554,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3573,7 +3570,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3590,11 +3587,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3606,7 +3603,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3623,11 +3620,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3639,7 +3636,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3656,11 +3653,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3672,7 +3669,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3689,11 +3686,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3705,7 +3702,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3722,11 +3719,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3738,7 +3735,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3755,7 +3752,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3771,14 +3768,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3792,10 +3789,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>209</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>210</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3804,7 +3801,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3821,11 +3818,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3837,7 +3834,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3858,7 +3855,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3870,14 +3867,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3887,11 +3884,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3903,7 +3900,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3920,11 +3917,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3936,7 +3933,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3953,11 +3950,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -4042,7 +4039,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4184,7 +4181,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4290,7 +4287,7 @@
         <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4316,11 +4313,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4356,7 +4353,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4419,7 +4416,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4471,7 +4468,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4646,11 +4643,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4679,11 +4676,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4702,7 +4699,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4818,7 +4815,7 @@
         <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4834,7 +4831,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -5009,7 +5006,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -5075,7 +5072,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5131,7 +5128,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5197,7 +5194,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5207,14 +5204,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>319</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5223,7 +5220,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5240,11 +5237,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5256,7 +5253,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5273,11 +5270,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5289,14 +5286,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5306,7 +5303,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5322,14 +5319,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5343,7 +5340,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>112</v>
@@ -5355,14 +5352,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5372,11 +5369,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5388,14 +5385,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5405,7 +5402,7 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
@@ -5421,7 +5418,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5438,11 +5435,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5454,7 +5451,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5471,11 +5468,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5487,7 +5484,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5504,14 +5501,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5520,7 +5517,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5537,14 +5534,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5553,7 +5550,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5570,11 +5567,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5586,7 +5583,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5603,11 +5600,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5619,14 +5616,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5652,14 +5649,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5669,11 +5666,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5685,7 +5682,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5718,7 +5715,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5751,7 +5748,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5784,7 +5781,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5801,7 +5798,7 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
@@ -5817,7 +5814,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5834,7 +5831,7 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
@@ -5850,7 +5847,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5867,11 +5864,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5883,7 +5880,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5916,14 +5913,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5945,13 +5942,13 @@
     </row>
     <row r="135" ht="24.75" customHeight="1">
       <c r="P135" s="13">
-        <v>7530.7600000000002</v>
+        <v>7597.4700000000003</v>
       </c>
       <c r="Q135" s="13"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
       <c t="s" r="A136" s="14">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -5959,13 +5956,13 @@
       <c r="E136" s="14"/>
       <c r="F136" s="14"/>
       <c t="s" r="G136" s="15">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
       <c r="J136" s="16"/>
       <c t="s" r="K136" s="17">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L136" s="17"/>
       <c r="M136" s="17"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -1088,7 +1088,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:21 PM</t>
+    <t>Monday, 18 August, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>BLOCK ALPHA 0.4 MG MR 30 CAPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>39.6000</t>
+  </si>
+  <si>
     <t>BRONCHOPHANE 125ML SYRUP.</t>
   </si>
   <si>
@@ -305,9 +317,6 @@
     <t>COBAL 500MCG 30 F.C.TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -365,6 +374,15 @@
     <t>82.1700</t>
   </si>
   <si>
+    <t>COXRITOR 90 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
     <t>CURISAFE 500MG 8 CAPS</t>
   </si>
   <si>
@@ -626,9 +644,6 @@
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -716,6 +731,9 @@
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
     <t>NASACORT AQ 55 MCG NASAL SPRAY 120 DOSES</t>
   </si>
   <si>
@@ -866,9 +884,6 @@
     <t>SPASCOLON 100MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>-35.6400</t>
-  </si>
-  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -1037,7 +1052,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>شامبو كلير للرجال 180مل</t>
@@ -1088,7 +1103,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:22 PM</t>
+    <t>Monday, 18 August, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2158,7 +2173,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2168,14 +2183,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2184,14 +2199,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2201,14 +2216,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2217,14 +2232,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2241,7 +2256,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2257,7 +2272,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2267,11 +2282,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2283,14 +2298,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2304,10 +2319,10 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2316,14 +2331,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2333,14 +2348,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2373,7 +2388,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2406,7 +2421,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2422,7 +2437,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2432,14 +2447,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2448,14 +2463,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2465,14 +2480,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2481,14 +2496,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2498,14 +2513,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2521,7 +2536,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2531,14 +2546,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>100</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2554,7 +2569,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2564,14 +2579,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2580,14 +2595,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2604,7 +2619,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2620,7 +2635,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2630,7 +2645,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2663,14 +2678,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2679,20 +2694,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2703,7 +2718,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2725,18 +2740,18 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2745,14 +2760,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2762,11 +2777,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2778,14 +2793,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2795,14 +2810,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2818,7 +2833,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2828,14 +2843,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2844,14 +2859,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2861,14 +2876,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2884,7 +2899,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2894,11 +2909,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>35</v>
@@ -2910,14 +2925,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2927,14 +2942,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>135</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2943,14 +2958,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2960,14 +2975,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2976,14 +2991,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2993,14 +3008,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3009,14 +3024,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3026,14 +3041,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3049,7 +3064,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3059,14 +3074,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3075,14 +3090,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3092,14 +3107,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3108,14 +3123,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3125,14 +3140,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3141,14 +3156,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3158,11 +3173,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3174,14 +3189,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3191,14 +3206,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3207,14 +3222,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3224,11 +3239,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3240,14 +3255,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3257,14 +3272,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3280,7 +3295,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3290,7 +3305,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3346,7 +3361,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3363,7 +3378,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3379,7 +3394,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3396,7 +3411,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3412,7 +3427,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3429,7 +3444,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3445,7 +3460,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3478,7 +3493,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3511,7 +3526,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3528,7 +3543,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3544,7 +3559,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3561,7 +3576,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3577,7 +3592,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3594,7 +3609,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3616,15 +3631,15 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3653,14 +3668,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3669,7 +3684,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3682,18 +3697,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3702,14 +3717,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3719,11 +3734,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3735,28 +3750,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3768,14 +3783,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3785,14 +3800,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>209</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3808,24 +3823,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3834,14 +3849,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3851,14 +3866,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>214</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3874,13 +3889,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3891,7 +3906,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3907,7 +3922,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3917,14 +3932,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>109</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3933,31 +3948,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3966,31 +3981,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3999,14 +4014,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4016,14 +4031,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4032,28 +4047,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>98</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>35</v>
@@ -4065,14 +4080,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4082,11 +4097,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4098,14 +4113,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4115,14 +4130,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4131,31 +4146,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4164,7 +4179,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4177,18 +4192,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4197,14 +4212,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4214,14 +4229,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4230,31 +4245,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4263,14 +4278,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4280,14 +4295,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4296,14 +4311,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4313,14 +4328,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4336,7 +4351,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4353,7 +4368,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4369,24 +4384,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4395,14 +4410,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4412,11 +4427,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4428,14 +4443,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4445,14 +4460,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4468,24 +4483,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>23</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4494,14 +4509,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4511,14 +4526,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4534,7 +4549,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4544,14 +4559,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4560,14 +4575,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4577,14 +4592,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4593,14 +4608,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4610,14 +4625,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4633,21 +4648,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>94</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>197</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4659,14 +4674,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4676,11 +4691,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4692,14 +4707,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4709,11 +4724,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>35</v>
@@ -4725,7 +4740,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4738,15 +4753,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>278</v>
+        <v>98</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4758,14 +4773,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>115</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4775,11 +4790,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>66</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4791,14 +4806,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4808,14 +4823,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>159</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4824,14 +4839,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4841,11 +4856,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4857,14 +4872,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4874,11 +4889,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4890,14 +4905,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4907,14 +4922,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4923,31 +4938,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4956,14 +4971,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4973,11 +4988,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4989,14 +5004,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5006,14 +5021,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5022,31 +5037,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5055,14 +5070,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5072,11 +5087,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>85</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5088,14 +5103,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5105,14 +5120,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>309</v>
+        <v>85</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5121,14 +5136,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5138,14 +5153,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5154,14 +5169,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5171,11 +5186,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5187,14 +5202,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5204,14 +5219,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>24</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5220,14 +5235,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5237,14 +5252,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>133</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5253,14 +5268,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5270,11 +5285,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5286,31 +5301,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>325</v>
+        <v>287</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>233</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5319,31 +5334,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5352,28 +5367,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5385,14 +5400,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5402,14 +5417,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5418,14 +5433,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5435,14 +5450,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5451,14 +5466,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5468,11 +5483,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>88</v>
+        <v>335</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5491,7 +5506,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5501,14 +5516,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>339</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5524,7 +5539,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5534,14 +5549,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>341</v>
+        <v>66</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>342</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5550,14 +5565,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5567,11 +5582,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>344</v>
+        <v>92</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5583,14 +5598,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5600,14 +5615,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>344</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5616,14 +5631,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5633,14 +5648,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>103</v>
+        <v>346</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>26</v>
+        <v>347</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5656,7 +5671,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>349</v>
+        <v>26</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5666,11 +5681,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>188</v>
+        <v>349</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5689,7 +5704,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>306</v>
+        <v>26</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5699,11 +5714,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>28</v>
+        <v>331</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5715,14 +5730,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5732,14 +5747,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5748,14 +5763,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5765,11 +5780,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5781,14 +5796,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5798,11 +5813,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>334</v>
+        <v>28</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5814,14 +5829,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5831,14 +5846,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>271</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5847,14 +5862,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5864,11 +5879,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>326</v>
+        <v>46</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>346</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5880,7 +5895,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5897,11 +5912,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>42</v>
+        <v>339</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5913,14 +5928,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>358</v>
+        <v>18</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5930,49 +5945,148 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>360</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>45</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>27</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>331</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>351</v>
+      </c>
+      <c t="s" r="Q135" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>361</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>39</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>27</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>42</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
         <v>43</v>
       </c>
-      <c t="s" r="Q134" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" ht="24.75" customHeight="1">
-      <c r="P135" s="13">
-        <v>7597.4700000000003</v>
-      </c>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" ht="16.5" customHeight="1">
-      <c t="s" r="A136" s="14">
-        <v>359</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c t="s" r="G136" s="15">
-        <v>360</v>
-      </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-      <c r="J136" s="16"/>
-      <c t="s" r="K136" s="17">
-        <v>361</v>
-      </c>
-      <c r="L136" s="17"/>
-      <c r="M136" s="17"/>
-      <c r="N136" s="17"/>
-      <c r="O136" s="17"/>
-      <c r="P136" s="17"/>
-      <c r="Q136" s="17"/>
+      <c t="s" r="Q136" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>362</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>363</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>27</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>42</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q137" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>7812.7200000000003</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>364</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>365</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>366</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="652">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6621,10 +6735,25 @@
     <mergeCell ref="H134:K134"/>
     <mergeCell ref="L134:M134"/>
     <mergeCell ref="N134:O134"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="A136:F136"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="K136:Q136"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>33.6600</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ANKLE SUPPORT</t>
   </si>
   <si>
@@ -272,15 +281,24 @@
     <t>172.0000</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
     <t>25:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t>62.0000</t>
   </si>
   <si>
@@ -641,6 +659,9 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>JOMOGESTIVE TAB</t>
   </si>
   <si>
@@ -944,12 +965,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
@@ -965,15 +980,21 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>26.00</t>
   </si>
   <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -1103,7 +1124,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:25 PM</t>
+    <t>Monday, 18 August, 2025 9:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1843,21 +1864,21 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1869,31 +1890,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1902,14 +1923,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1919,11 +1940,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1935,14 +1956,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1952,14 +1973,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1975,7 +1996,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1985,7 +2006,7 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -2008,7 +2029,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2018,11 +2039,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -2034,14 +2055,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2074,7 +2095,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2084,14 +2105,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2100,14 +2121,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2124,7 +2145,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2140,7 +2161,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2157,7 +2178,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2173,7 +2194,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2183,11 +2204,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2199,14 +2220,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2223,7 +2244,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2239,7 +2260,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2256,7 +2277,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2272,7 +2293,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2282,14 +2303,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2298,14 +2319,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2315,11 +2336,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2331,14 +2352,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2352,10 +2373,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2364,14 +2385,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2381,14 +2402,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2397,14 +2418,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2414,14 +2435,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2430,14 +2451,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2447,14 +2468,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2463,14 +2484,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2487,7 +2508,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2503,7 +2524,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2513,14 +2534,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2536,7 +2557,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2553,7 +2574,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2562,14 +2583,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2579,11 +2600,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2595,14 +2616,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2612,14 +2633,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2628,14 +2649,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2645,14 +2666,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2661,14 +2682,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2678,14 +2699,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2701,7 +2722,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2711,14 +2732,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2727,31 +2748,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2784,7 +2805,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2800,24 +2821,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2826,14 +2847,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2843,11 +2864,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2859,14 +2880,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2876,14 +2897,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2899,7 +2920,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2909,14 +2930,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2925,14 +2946,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2942,14 +2963,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2965,7 +2986,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2975,14 +2996,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2991,14 +3012,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3024,14 +3045,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3041,14 +3062,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3057,14 +3078,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3074,14 +3095,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3090,14 +3111,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3107,14 +3128,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3130,7 +3151,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3140,14 +3161,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3156,14 +3177,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3173,14 +3194,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3206,14 +3227,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3239,11 +3260,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3272,14 +3293,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>165</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3288,14 +3309,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3305,11 +3326,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3321,14 +3342,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3338,14 +3359,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>171</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3361,7 +3382,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3371,7 +3392,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3394,7 +3415,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3427,7 +3448,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3444,7 +3465,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3460,7 +3481,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3477,7 +3498,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3493,7 +3514,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3510,7 +3531,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3526,7 +3547,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3559,7 +3580,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3592,7 +3613,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3609,7 +3630,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3625,7 +3646,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3642,7 +3663,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3658,7 +3679,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3675,7 +3696,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3691,21 +3712,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3717,14 +3738,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3734,14 +3755,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3750,31 +3771,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3783,14 +3804,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3800,11 +3821,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3816,28 +3837,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>63</v>
+        <v>182</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3849,14 +3870,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3866,14 +3887,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>214</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3882,7 +3903,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3899,11 +3920,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3915,28 +3936,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3948,31 +3969,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3981,14 +4002,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3998,11 +4019,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -4014,14 +4035,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4031,14 +4052,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4047,31 +4068,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4080,14 +4101,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4097,14 +4118,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4113,14 +4134,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4130,14 +4151,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4146,31 +4167,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4186,21 +4207,21 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>32</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4212,14 +4233,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4229,14 +4250,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4245,31 +4266,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>39</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4291,18 +4312,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>173</v>
+        <v>35</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4311,14 +4332,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4328,14 +4349,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4344,31 +4365,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4377,14 +4398,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4394,14 +4415,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>153</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4410,14 +4431,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4427,14 +4448,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4443,14 +4464,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4460,14 +4481,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4476,31 +4497,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4516,7 +4537,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4526,11 +4547,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>69</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4542,14 +4563,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4559,14 +4580,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4575,31 +4596,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4608,14 +4629,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4625,14 +4646,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4641,14 +4662,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4658,14 +4679,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4674,14 +4695,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4691,14 +4712,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4714,7 +4735,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4724,14 +4745,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4740,28 +4761,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>98</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4773,14 +4794,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4790,11 +4811,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4806,14 +4827,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4823,14 +4844,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4839,28 +4860,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>104</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4879,7 +4900,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>287</v>
+        <v>121</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4889,11 +4910,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>69</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4905,14 +4926,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4922,14 +4943,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>117</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4938,14 +4959,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4955,11 +4976,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4971,14 +4992,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5011,7 +5032,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5021,14 +5042,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5037,31 +5058,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5070,14 +5091,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5087,11 +5108,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5103,14 +5124,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5120,14 +5141,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>85</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5136,31 +5157,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5176,7 +5197,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>311</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5186,7 +5207,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>89</v>
+        <v>311</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5209,7 +5230,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5219,14 +5240,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>314</v>
+        <v>88</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5235,14 +5256,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5252,14 +5273,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5268,14 +5289,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>311</v>
+        <v>91</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5285,11 +5306,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5301,14 +5322,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>287</v>
+        <v>42</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5318,14 +5339,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>24</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5334,14 +5355,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5351,14 +5372,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>324</v>
+        <v>139</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5367,14 +5388,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5384,11 +5405,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5400,31 +5421,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>330</v>
+        <v>91</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5433,31 +5454,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>28</v>
+        <v>329</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>115</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5466,28 +5487,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5499,28 +5520,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>338</v>
+        <v>42</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>15</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5532,31 +5553,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>66</v>
+        <v>338</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5565,31 +5586,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>93</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5598,31 +5619,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>156</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>344</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5631,20 +5652,20 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>39</v>
+        <v>345</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
@@ -5652,10 +5673,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>347</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5664,28 +5685,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>349</v>
+        <v>69</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5697,28 +5718,28 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>331</v>
+        <v>98</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>351</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5730,31 +5751,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>106</v>
+        <v>350</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>26</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5763,31 +5784,31 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>354</v>
+        <v>42</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>194</v>
+        <v>353</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>354</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5803,21 +5824,21 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>311</v>
+        <v>29</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>28</v>
+        <v>356</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5829,31 +5850,31 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>19</v>
+        <v>338</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>43</v>
+        <v>358</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5862,31 +5883,31 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5895,28 +5916,28 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>39</v>
+        <v>361</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5928,31 +5949,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>277</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5961,31 +5982,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>331</v>
+        <v>19</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>351</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -5994,28 +6015,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6027,66 +6048,198 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q137" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>7812.7200000000003</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>364</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
-        <v>365</v>
-      </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
         <v>366</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>18</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>30</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>69</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q138" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>367</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>48</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>30</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>338</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>358</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>368</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>42</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>30</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>45</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>369</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>370</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>30</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>45</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q141" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>7990.7200000000003</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>371</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>372</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>373</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6750,10 +6903,30 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>ALBOTHYL 1.8% VAG. JEL 40 GM</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -95,6 +107,18 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE-N 5 VAG. SUPP</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>10.5000</t>
+  </si>
+  <si>
     <t>ANKLE SUPPORT</t>
   </si>
   <si>
@@ -188,9 +212,6 @@
     <t>BETOLVEX 1MG/ML 2 AMP</t>
   </si>
   <si>
-    <t>64.00</t>
-  </si>
-  <si>
     <t>128.0000</t>
   </si>
   <si>
@@ -374,9 +395,6 @@
     <t>CORASORE 150MG 20 TAB</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>46.00</t>
   </si>
   <si>
@@ -563,6 +581,15 @@
     <t>140.0000</t>
   </si>
   <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
@@ -866,6 +893,12 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>QUADRIDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
     <t>REBO SACHET</t>
   </si>
   <si>
@@ -932,6 +965,9 @@
     <t>138.0000</t>
   </si>
   <si>
+    <t>TAVACIN 750MG 5 TAB</t>
+  </si>
+  <si>
     <t>THIODIO COMB TAB</t>
   </si>
   <si>
@@ -1022,9 +1058,6 @@
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -1124,7 +1157,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:30 PM</t>
+    <t>Monday, 18 August, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1848,7 +1881,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1864,7 +1897,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1874,14 +1907,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1890,28 +1923,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1923,14 +1956,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1940,14 +1973,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1956,20 +1989,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1980,7 +2013,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -2006,14 +2039,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -2022,14 +2055,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2039,14 +2072,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2055,14 +2088,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2072,11 +2105,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -2088,14 +2121,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2105,11 +2138,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -2121,14 +2154,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2138,14 +2171,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2154,14 +2187,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2171,14 +2204,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2187,14 +2220,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2204,11 +2237,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2220,14 +2253,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2237,14 +2270,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2260,7 +2293,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2277,7 +2310,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2293,7 +2326,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2303,11 +2336,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2319,14 +2352,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2359,7 +2392,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2369,14 +2402,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2385,14 +2418,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2402,14 +2435,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2418,14 +2451,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2435,14 +2468,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2451,14 +2484,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2468,14 +2501,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2484,14 +2517,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2501,14 +2534,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2517,14 +2550,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2534,14 +2567,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2557,7 +2590,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2567,14 +2600,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2583,14 +2616,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2600,14 +2633,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2616,14 +2649,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2633,14 +2666,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2656,7 +2689,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2689,7 +2722,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2699,14 +2732,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2722,7 +2755,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2739,7 +2772,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2765,14 +2798,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2781,14 +2814,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2805,7 +2838,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2821,24 +2854,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2854,7 +2887,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2871,7 +2904,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2887,24 +2920,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2913,14 +2946,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2930,11 +2963,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2946,14 +2979,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2963,14 +2996,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2986,7 +3019,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2996,14 +3029,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -3012,14 +3045,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3029,14 +3062,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3052,7 +3085,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3062,14 +3095,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3078,14 +3111,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3095,14 +3128,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>147</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3111,14 +3144,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3128,14 +3161,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3144,14 +3177,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3161,14 +3194,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3177,14 +3210,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3194,14 +3227,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3217,7 +3250,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3227,14 +3260,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>159</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3243,14 +3276,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3260,14 +3293,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3276,14 +3309,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3293,14 +3326,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3309,14 +3342,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3326,11 +3359,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3342,14 +3375,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3359,14 +3392,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3375,14 +3408,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3392,11 +3425,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3408,14 +3441,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3425,14 +3458,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q57" s="12">
         <v>177</v>
-      </c>
-      <c t="s" r="Q57" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3448,7 +3481,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3458,7 +3491,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3481,7 +3514,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3514,7 +3547,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3531,7 +3564,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3547,7 +3580,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3564,7 +3597,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3580,7 +3613,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3597,7 +3630,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3613,7 +3646,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3630,7 +3663,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3646,7 +3679,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3679,7 +3712,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3696,7 +3729,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3712,7 +3745,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3729,7 +3762,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3745,7 +3778,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3778,21 +3811,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3804,14 +3837,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3821,11 +3854,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3837,14 +3870,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3854,11 +3887,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3870,28 +3903,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>111</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3903,7 +3936,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3920,11 +3953,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3936,28 +3969,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3969,14 +4002,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3986,14 +4019,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>221</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4002,7 +4035,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -4019,11 +4052,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -4035,28 +4068,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -4075,24 +4108,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>47</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4101,14 +4134,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4118,11 +4151,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4134,14 +4167,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4151,14 +4184,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4174,24 +4207,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4200,14 +4233,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4217,14 +4250,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4233,14 +4266,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4250,14 +4283,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4266,31 +4299,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4299,28 +4332,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4332,14 +4365,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4349,14 +4382,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4365,31 +4398,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>47</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4398,7 +4431,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4411,18 +4444,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4431,14 +4464,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4448,14 +4481,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4464,31 +4497,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4497,14 +4530,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4514,14 +4547,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>159</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4530,14 +4563,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4547,14 +4580,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>69</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4563,14 +4596,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4580,14 +4613,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4596,31 +4629,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4629,14 +4662,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4646,11 +4679,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4662,14 +4695,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4679,14 +4712,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4695,31 +4728,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4728,14 +4761,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4745,14 +4778,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4761,14 +4794,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4778,14 +4811,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4794,14 +4827,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4811,14 +4844,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4827,14 +4860,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4844,14 +4877,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4860,28 +4893,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>104</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>209</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4893,14 +4926,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4910,11 +4943,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>70</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4926,14 +4959,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4943,14 +4976,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4959,14 +4992,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4976,11 +5009,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4992,28 +5025,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>294</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -5032,7 +5065,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5042,14 +5075,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5065,7 +5098,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5082,7 +5115,7 @@
         <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5098,7 +5131,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5131,7 +5164,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5141,11 +5174,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5157,31 +5190,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5190,14 +5223,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5207,11 +5240,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5223,14 +5256,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5240,14 +5273,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>88</v>
+        <v>313</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
         <v>314</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5263,7 +5296,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5273,11 +5306,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5289,14 +5322,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5306,11 +5339,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5322,31 +5355,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5355,14 +5388,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5372,14 +5405,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>139</v>
+        <v>323</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5388,14 +5421,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5405,14 +5438,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>324</v>
+        <v>95</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5421,14 +5454,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5438,11 +5471,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>93</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5454,14 +5487,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5471,14 +5504,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>329</v>
+        <v>30</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5494,7 +5527,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5527,7 +5560,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5537,14 +5570,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>334</v>
+        <v>145</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5553,31 +5586,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>337</v>
+        <v>50</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>245</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5586,31 +5619,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>337</v>
+        <v>98</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>31</v>
+        <v>339</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5619,31 +5652,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>87</v>
+        <v>305</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>343</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5652,28 +5685,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>345</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>15</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5685,28 +5718,28 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>69</v>
+        <v>346</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>70</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5725,24 +5758,24 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>98</v>
+        <v>349</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>99</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5751,31 +5784,31 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>350</v>
+        <v>39</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>162</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>351</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5791,13 +5824,13 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
@@ -5805,10 +5838,10 @@
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>119</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>354</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5824,21 +5857,21 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>29</v>
+        <v>356</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5850,28 +5883,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>12</v>
@@ -5890,24 +5923,24 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5923,24 +5956,24 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>361</v>
+        <v>50</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>200</v>
+        <v>361</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>12</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5949,31 +5982,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>31</v>
+        <v>364</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>12</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5982,31 +6015,31 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>19</v>
+        <v>367</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q135" s="12">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
@@ -6015,28 +6048,28 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>49</v>
+        <v>349</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c t="s" r="Q136" s="12">
         <v>12</v>
@@ -6048,31 +6081,31 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>346</v>
+        <v>119</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6081,31 +6114,31 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>18</v>
+        <v>372</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6114,28 +6147,28 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
       <c r="G139" s="8"/>
       <c t="s" r="H139" s="9">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
       <c r="K139" s="9"/>
       <c t="s" r="L139" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>338</v>
+        <v>39</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>358</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q139" s="12">
         <v>12</v>
@@ -6147,31 +6180,31 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
       <c r="K140" s="9"/>
       <c t="s" r="L140" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6180,66 +6213,231 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>370</v>
+        <v>305</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
       <c t="s" r="L141" s="10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q141" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>7990.7200000000003</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
-        <v>371</v>
-      </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
-        <v>372</v>
-      </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
-        <v>373</v>
-      </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>376</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>50</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>38</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>357</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>377</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>18</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>38</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>76</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q143" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>378</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>56</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>38</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>349</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>369</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="A145" s="7">
+        <v>139</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c t="s" r="C145" s="8">
+        <v>379</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c t="s" r="H145" s="9">
+        <v>50</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="9"/>
+      <c t="s" r="L145" s="10">
+        <v>38</v>
+      </c>
+      <c r="M145" s="10"/>
+      <c t="s" r="N145" s="8">
+        <v>53</v>
+      </c>
+      <c r="O145" s="8"/>
+      <c t="s" r="P145" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q145" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" ht="25.5" customHeight="1">
+      <c r="A146" s="7">
+        <v>140</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c t="s" r="C146" s="8">
+        <v>380</v>
+      </c>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c t="s" r="H146" s="9">
+        <v>381</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c t="s" r="L146" s="10">
+        <v>38</v>
+      </c>
+      <c r="M146" s="10"/>
+      <c t="s" r="N146" s="8">
+        <v>53</v>
+      </c>
+      <c r="O146" s="8"/>
+      <c t="s" r="P146" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q146" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1">
+      <c r="P147" s="13">
+        <v>8236.2199999999993</v>
+      </c>
+      <c r="Q147" s="13"/>
+    </row>
+    <row r="148" ht="16.5" customHeight="1">
+      <c t="s" r="A148" s="14">
+        <v>382</v>
+      </c>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c t="s" r="G148" s="15">
+        <v>383</v>
+      </c>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c t="s" r="K148" s="17">
+        <v>384</v>
+      </c>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="712">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6923,10 +7121,35 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="H145:K145"/>
+    <mergeCell ref="L145:M145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="H146:K146"/>
+    <mergeCell ref="L146:M146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="P147:Q147"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="K148:Q148"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-18_00-00.xlsx
+++ b/DaySale_2025-08-18_00-00.xlsx
@@ -626,6 +626,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>480.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC 1GM 16 TAB</t>
   </si>
   <si>
@@ -818,9 +827,6 @@
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
     <t>79.2000</t>
   </si>
   <si>
@@ -1157,7 +1163,7 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>Monday, 18 August, 2025 9:32 PM</t>
+    <t>Monday, 18 August, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3778,7 +3784,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3795,7 +3801,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3811,7 +3817,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3828,7 +3834,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3877,7 +3883,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3894,7 +3900,7 @@
         <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3910,24 +3916,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3936,28 +3942,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3969,14 +3975,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3986,14 +3992,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -4002,7 +4008,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -4019,14 +4025,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -4042,7 +4048,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -4052,11 +4058,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -4068,31 +4074,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4101,31 +4107,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4134,14 +4140,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4151,14 +4157,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q78" s="12">
         <v>233</v>
-      </c>
-      <c t="s" r="Q78" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4174,7 +4180,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4184,14 +4190,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4200,24 +4206,24 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4240,13 +4246,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -4257,7 +4263,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4273,7 +4279,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4306,24 +4312,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4332,20 +4338,20 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4356,7 +4362,7 @@
         <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4372,7 +4378,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4389,7 +4395,7 @@
         <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4405,7 +4411,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4415,14 +4421,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>47</v>
+        <v>256</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4431,28 +4437,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4464,31 +4470,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4510,7 +4516,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4537,21 +4543,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>185</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4563,14 +4569,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4580,14 +4586,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4603,7 +4609,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4636,7 +4642,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4646,14 +4652,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4669,7 +4675,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4679,14 +4685,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>77</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4695,14 +4701,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4712,14 +4718,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4728,31 +4734,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4761,28 +4767,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4811,14 +4817,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4827,14 +4833,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4844,11 +4850,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>27</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4867,7 +4873,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4877,11 +4883,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4910,14 +4916,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4926,14 +4932,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4943,11 +4949,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>119</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4959,14 +4965,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4976,14 +4982,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>269</v>
+        <v>119</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4999,7 +5005,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5009,14 +5015,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>206</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -5038,15 +5044,15 @@
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>111</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>218</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -5058,28 +5064,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -5091,14 +5097,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5108,14 +5114,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5124,14 +5130,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>50</v>
+        <v>162</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5141,14 +5147,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5157,14 +5163,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>50</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5174,11 +5180,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5190,14 +5196,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>37</v>
+        <v>307</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5207,14 +5213,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>129</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5223,14 +5229,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5240,14 +5246,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5256,14 +5262,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5273,11 +5279,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5289,14 +5295,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5306,11 +5312,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5322,14 +5328,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5339,11 +5345,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>243</v>
+        <v>318</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5355,31 +5361,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>320</v>
+        <v>246</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5388,31 +5394,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5421,14 +5427,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5438,14 +5444,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>95</v>
+        <v>325</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
         <v>326</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5461,7 +5467,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5471,14 +5477,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
         <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5494,7 +5500,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5504,11 +5510,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>31</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5520,14 +5526,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5537,11 +5543,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>332</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5553,14 +5559,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5570,14 +5576,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>145</v>
+        <v>333</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
         <v>334</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5593,7 +5599,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5603,14 +5609,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>336</v>
+        <v>145</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5619,14 +5625,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5636,11 +5642,11 @@
       </c>